--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3348282.580832434</v>
+        <v>3398966.253858096</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2570018.820706867</v>
+        <v>2104816.956126889</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1545696.028226542</v>
+        <v>826053.9034197842</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6642129.621922543</v>
+        <v>6807927.041129067</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>229.9609751381512</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>229.9609751381512</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>27.98289658589034</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>229.9609751381512</v>
+        <v>204.6409165276156</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -750,10 +752,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -789,19 +791,19 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>121.7012613719806</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>144.0795677084137</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>172.2809226922633</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>345.190671479376</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>164.4381521474947</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +980,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>36.60820509697668</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -1060,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>11.27515333455016</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>187.0716389556424</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,7 +1147,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>139.3871307023137</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>325.9621057721661</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>86.28770282458319</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>108.9015659506218</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799665</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
@@ -1385,10 +1387,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>213.8801194452801</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
-        <v>76.59429620826495</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380425</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1585,13 +1587,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>128.1198936524527</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>43.01721371098812</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I16" t="n">
         <v>37.77220663497643</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1822,13 +1824,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>295.2524720077822</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>287.5954430211825</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>304.5664151603045</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>318.7342196110055</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>315.0398534825604</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>226.8509454548578</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>127.274321941861</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>159.2039277954309</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>244.6944667292003</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>273.297770207079</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>291.5668045419573</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>169.3222449734232</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.36466403007182</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>74.51179228035423</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>60.08550749219395</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>60.01194954507307</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>61.76140096484033</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>72.58023888723247</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>59.93249105380451</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>37.77220663497644</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.67070499943236</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>106.7966485049597</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>139.3705868391318</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>188.5931293662016</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>169.3282772530676</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>186.5058235738177</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>137.7482445205303</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>126.8896660972066</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>302.4985237799665</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
-        <v>295.2524720077822</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>287.5954430211825</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>304.5664151603045</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>318.7342196110055</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>315.0398534825604</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>226.8509454548578</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>244.6944667292003</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>273.297770207079</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>146.3342479584171</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>298.5345275142885</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.36466403007182</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>74.51179228035423</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>60.08550749219395</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>60.01194954507307</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>61.76140096484033</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>72.58023888723247</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>59.93249105380451</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>37.77220663497644</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.67070499943236</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>106.7966485049597</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
-        <v>139.3705868391318</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>188.5931293662016</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>169.3282772530676</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>186.5058235738177</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
-        <v>137.7482445205303</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>126.8896660972066</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>302.4985237799665</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
-        <v>295.2524720077822</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>287.5954430211825</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>304.5664151603045</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>318.7342196110055</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>315.0398534825604</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>226.8509454548578</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>244.6944667292003</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>128.0652136235387</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>291.5668045419573</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>298.5345275142885</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.36466403007182</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>74.51179228035423</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>60.08550749219395</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>60.01194954507307</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>61.76140096484033</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>72.58023888723247</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>59.93249105380451</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>37.77220663497643</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.67070499943236</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>106.7966485049597</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
-        <v>139.3705868391318</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>188.5931293662016</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>169.3282772530676</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>186.5058235738177</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
-        <v>137.7482445205303</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>126.8896660972066</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>101.123016402069</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077823</v>
@@ -2564,7 +2566,7 @@
         <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2573,7 +2575,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414339</v>
+        <v>42.96247126414342</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404351</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U26" t="n">
-        <v>59.68204672927846</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V26" t="n">
         <v>244.6944667292004</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007186</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035424</v>
+        <v>74.51179228035427</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219397</v>
+        <v>60.085507492194</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507311</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484038</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723248</v>
+        <v>72.58023888723251</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380453</v>
+        <v>59.93249105380455</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497648</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943253</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2779,7 +2781,7 @@
         <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.8896660972066</v>
+        <v>126.8896660972067</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>266.1298289386986</v>
+        <v>128.9368898320087</v>
       </c>
       <c r="C29" t="n">
-        <v>258.8837771665143</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D29" t="n">
-        <v>251.2267481799146</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>268.1977203190365</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
-        <v>282.3655247697376</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G29" t="n">
-        <v>278.6711586412924</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>190.4822506135899</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>6.593776422875436</v>
+        <v>42.96247126414339</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>34.48845019277556</v>
+        <v>70.85714503404351</v>
       </c>
       <c r="T29" t="n">
-        <v>90.90562710059311</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>122.835232954163</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V29" t="n">
-        <v>208.3257718879324</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>236.929075365811</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
-        <v>255.1981097006892</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.1658326730205</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>52.99596918880388</v>
+        <v>89.36466403007184</v>
       </c>
       <c r="C31" t="n">
-        <v>38.14309743908629</v>
+        <v>74.51179228035424</v>
       </c>
       <c r="D31" t="n">
-        <v>23.71681265092602</v>
+        <v>60.08550749219397</v>
       </c>
       <c r="E31" t="n">
-        <v>23.64325470380513</v>
+        <v>60.01194954507308</v>
       </c>
       <c r="F31" t="n">
-        <v>25.3927061235724</v>
+        <v>61.76140096484035</v>
       </c>
       <c r="G31" t="n">
-        <v>36.21154404596453</v>
+        <v>72.58023888723248</v>
       </c>
       <c r="H31" t="n">
-        <v>23.56379621253657</v>
+        <v>59.93249105380453</v>
       </c>
       <c r="I31" t="n">
-        <v>1.403511793708503</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>28.67070499943237</v>
       </c>
       <c r="S31" t="n">
-        <v>70.42795366369174</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>103.0018919978638</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>152.2244345249337</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V31" t="n">
-        <v>132.9595824117996</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
-        <v>150.1371287325498</v>
+        <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>101.3795496792623</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
-        <v>90.52097125593869</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277517</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T32" t="n">
         <v>90.90562710059311</v>
@@ -3332,7 +3334,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="36">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T38" t="n">
         <v>90.90562710059311</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>322.2802739911201</v>
       </c>
       <c r="C41" t="n">
-        <v>352.8750516408307</v>
+        <v>104.5029050364076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>362.1889947933529</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>376.3567992440541</v>
+        <v>338.5159698221591</v>
       </c>
       <c r="G41" t="n">
-        <v>301.3698382704845</v>
+        <v>334.821603693714</v>
       </c>
       <c r="H41" t="n">
-        <v>284.4735250879063</v>
+        <v>246.6326956660114</v>
       </c>
       <c r="I41" t="n">
-        <v>100.5850508971919</v>
+        <v>62.74422147529695</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>128.479724667092</v>
+        <v>90.63889524519708</v>
       </c>
       <c r="T41" t="n">
-        <v>184.8969015749095</v>
+        <v>147.0560721530146</v>
       </c>
       <c r="U41" t="n">
-        <v>216.8265074284794</v>
+        <v>178.9856780065845</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>264.4762169403539</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>293.0795204182326</v>
       </c>
       <c r="X41" t="n">
-        <v>349.1893841750058</v>
+        <v>311.3485547531109</v>
       </c>
       <c r="Y41" t="n">
-        <v>356.1571071473369</v>
+        <v>318.316277725442</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>109.1464142412254</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>94.29354249150781</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>79.86725770334753</v>
       </c>
       <c r="E43" t="n">
-        <v>117.6345291781216</v>
+        <v>79.79369975622664</v>
       </c>
       <c r="F43" t="n">
-        <v>119.3839805978888</v>
+        <v>81.54315117599391</v>
       </c>
       <c r="G43" t="n">
-        <v>130.202818520281</v>
+        <v>92.36198909838605</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>79.71424126495809</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>57.55395684613002</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>48.45245521058594</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>126.5783987161133</v>
       </c>
       <c r="T43" t="n">
-        <v>196.9931664721802</v>
+        <v>159.1523370502853</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>100.5796976599394</v>
       </c>
       <c r="V43" t="n">
-        <v>226.9508568861161</v>
+        <v>189.1100274642212</v>
       </c>
       <c r="W43" t="n">
-        <v>172.4386122712444</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>184.5122457302551</v>
+        <v>146.6714163083602</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>115.7203183293662</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>315.0342222189358</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>307.3771932323361</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>338.5159698221591</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>334.821603693714</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>246.6326956660114</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>62.74422147529698</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>90.63889524519711</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>147.0560721530147</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>178.9856780065845</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>264.4762169403539</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>293.0795204182326</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>267.3091065114361</v>
+        <v>318.316277725442</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>109.1464142412254</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>94.29354249150784</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>13.54415389277668</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>57.55395684613005</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>116.6984424915405</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>159.1523370502854</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>208.3748795773552</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>189.1100274642212</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>206.2875737849713</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>157.5299947316839</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>146.6714163083602</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>621.3016214603068</v>
+        <v>1388.826628074147</v>
       </c>
       <c r="C2" t="n">
-        <v>621.3016214603068</v>
+        <v>995.6511265770774</v>
       </c>
       <c r="D2" t="n">
-        <v>621.3016214603068</v>
+        <v>610.2099977937452</v>
       </c>
       <c r="E2" t="n">
-        <v>621.3016214603068</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F2" t="n">
-        <v>389.017808189447</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G2" t="n">
-        <v>156.7339949185873</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
-        <v>156.7339949185873</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>18.39687801105209</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>246.0582433978217</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L2" t="n">
-        <v>473.7196087845913</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M2" t="n">
-        <v>507.3369750248864</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N2" t="n">
-        <v>507.3369750248864</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>734.998340411656</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
-        <v>734.998340411656</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>881.8509868381266</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>853.5854347311666</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>853.5854347311666</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U2" t="n">
-        <v>621.3016214603068</v>
+        <v>1730.933437370628</v>
       </c>
       <c r="V2" t="n">
-        <v>621.3016214603068</v>
+        <v>1388.826628074147</v>
       </c>
       <c r="W2" t="n">
-        <v>621.3016214603068</v>
+        <v>1388.826628074147</v>
       </c>
       <c r="X2" t="n">
-        <v>621.3016214603068</v>
+        <v>1388.826628074147</v>
       </c>
       <c r="Y2" t="n">
-        <v>621.3016214603068</v>
+        <v>1388.826628074147</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>458.7513963836407</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>458.7513963836407</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>328.662429005121</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>192.2159381160087</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>67.7841319991405</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>67.7841319991405</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>67.7841319991405</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K3" t="n">
-        <v>236.8598043922958</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L3" t="n">
-        <v>236.8598043922958</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="M3" t="n">
-        <v>464.5211697790654</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N3" t="n">
-        <v>692.182535165835</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>919.8439005526046</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>919.8439005526046</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>895.9268574506692</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>760.996180350538</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>760.996180350538</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>760.996180350538</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>638.0656133081334</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
-        <v>638.0656133081334</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
-        <v>638.0656133081334</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>458.7513963836407</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337.5026866453575</v>
+        <v>356.3205825155494</v>
       </c>
       <c r="C4" t="n">
-        <v>337.5026866453575</v>
+        <v>356.3205825155494</v>
       </c>
       <c r="D4" t="n">
-        <v>181.8695735478723</v>
+        <v>356.3205825155494</v>
       </c>
       <c r="E4" t="n">
-        <v>181.8695735478723</v>
+        <v>356.3205825155494</v>
       </c>
       <c r="F4" t="n">
-        <v>181.8695735478723</v>
+        <v>356.3205825155494</v>
       </c>
       <c r="G4" t="n">
-        <v>181.8695735478723</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="H4" t="n">
-        <v>181.8695735478723</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>48.77514818495014</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J4" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
-        <v>100.231919120994</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>264.3595589947938</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
-        <v>450.6511373330578</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N4" t="n">
-        <v>633.8407713642671</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O4" t="n">
-        <v>796.5455384059751</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P4" t="n">
-        <v>916.4217041825536</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q4" t="n">
-        <v>919.8439005526046</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>919.8439005526046</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>919.8439005526046</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T4" t="n">
-        <v>919.8439005526046</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U4" t="n">
-        <v>919.8439005526046</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V4" t="n">
-        <v>919.8439005526046</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W4" t="n">
-        <v>919.8439005526046</v>
+        <v>541.5286012068507</v>
       </c>
       <c r="X4" t="n">
-        <v>745.8227665200154</v>
+        <v>541.5286012068507</v>
       </c>
       <c r="Y4" t="n">
-        <v>522.7107053366587</v>
+        <v>541.5286012068507</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1179.906200443159</v>
+        <v>866.505261540228</v>
       </c>
       <c r="C5" t="n">
-        <v>1179.906200443159</v>
+        <v>473.3297600431587</v>
       </c>
       <c r="D5" t="n">
-        <v>1179.906200443159</v>
+        <v>473.3297600431587</v>
       </c>
       <c r="E5" t="n">
-        <v>1013.807056859831</v>
+        <v>473.3297600431587</v>
       </c>
       <c r="F5" t="n">
-        <v>596.9126183898087</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G5" t="n">
-        <v>183.7498628778119</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>183.7498628778119</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>45.41274597027668</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>45.41274597027668</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>404.3951019977385</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>897.7153937162673</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1443.716293760848</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>1482.410205489984</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O5" t="n">
-        <v>1922.449806382312</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="P5" t="n">
-        <v>2270.637298513834</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
-        <v>2270.637298513834</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2232.644384799356</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2232.644384799356</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>2232.644384799356</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U5" t="n">
-        <v>1976.891655233955</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V5" t="n">
-        <v>1976.891655233955</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W5" t="n">
-        <v>1976.891655233955</v>
+        <v>1604.635312545935</v>
       </c>
       <c r="X5" t="n">
-        <v>1976.891655233955</v>
+        <v>1215.182707478992</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.400946154556</v>
+        <v>1215.182707478992</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>751.6677466782292</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C6" t="n">
-        <v>601.0135162383214</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D6" t="n">
-        <v>564.0355312918803</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E6" t="n">
-        <v>427.5890404027679</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F6" t="n">
-        <v>303.1572342858997</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G6" t="n">
-        <v>183.0974163577642</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H6" t="n">
-        <v>94.79999995836509</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I6" t="n">
-        <v>45.41274597027668</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>45.41274597027668</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K6" t="n">
-        <v>45.41274597027668</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L6" t="n">
-        <v>224.5301844421076</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M6" t="n">
-        <v>786.5129158242815</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N6" t="n">
-        <v>1348.495647206455</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O6" t="n">
-        <v>1865.015929797437</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P6" t="n">
-        <v>2270.637298513834</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q6" t="n">
-        <v>2270.637298513834</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
-        <v>2246.720255411899</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S6" t="n">
-        <v>2111.789578311767</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>1934.805766510676</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U6" t="n">
-        <v>1724.742623189318</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V6" t="n">
-        <v>1502.202621560385</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
-        <v>1272.085375693671</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X6" t="n">
-        <v>1082.778298043683</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>903.4640811191905</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.79101614417473</v>
+        <v>556.9826573552996</v>
       </c>
       <c r="C7" t="n">
-        <v>75.79101614417473</v>
+        <v>556.9826573552996</v>
       </c>
       <c r="D7" t="n">
-        <v>75.79101614417473</v>
+        <v>556.9826573552996</v>
       </c>
       <c r="E7" t="n">
-        <v>75.79101614417473</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="F7" t="n">
-        <v>75.79101614417473</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="G7" t="n">
-        <v>75.79101614417473</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H7" t="n">
-        <v>75.79101614417473</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I7" t="n">
-        <v>75.79101614417473</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J7" t="n">
-        <v>45.41274597027668</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
-        <v>127.2477870802186</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>291.3754269540183</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
-        <v>477.6670052922824</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N7" t="n">
-        <v>660.8566393234917</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O7" t="n">
-        <v>823.5614063651997</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P7" t="n">
-        <v>943.4375721417782</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q7" t="n">
-        <v>946.8597685118292</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>822.9587791444062</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>811.5697353721333</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T7" t="n">
-        <v>575.8506835403674</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U7" t="n">
-        <v>575.8506835403674</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="V7" t="n">
-        <v>309.8713383611916</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="W7" t="n">
-        <v>309.8713383611916</v>
+        <v>556.9826573552996</v>
       </c>
       <c r="X7" t="n">
-        <v>75.79101614417473</v>
+        <v>556.9826573552996</v>
       </c>
       <c r="Y7" t="n">
-        <v>75.79101614417473</v>
+        <v>556.9826573552996</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1665.394817750351</v>
+        <v>1261.354413709946</v>
       </c>
       <c r="C8" t="n">
-        <v>1665.394817750351</v>
+        <v>1261.354413709946</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>875.9132849266141</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>473.3297600431586</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
         <v>47.31297010154361</v>
@@ -4802,22 +4804,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>173.6308686433316</v>
       </c>
       <c r="L8" t="n">
-        <v>685.2830347289006</v>
+        <v>666.9511603618604</v>
       </c>
       <c r="M8" t="n">
-        <v>1231.283934773481</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1759.095218410943</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4829,25 +4831,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2058.339868500742</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2058.339868500742</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2058.339868500742</v>
       </c>
       <c r="W8" t="n">
-        <v>1994.649470045468</v>
+        <v>2058.339868500742</v>
       </c>
       <c r="X8" t="n">
-        <v>1994.649470045468</v>
+        <v>2058.339868500742</v>
       </c>
       <c r="Y8" t="n">
-        <v>1665.394817750351</v>
+        <v>1661.849159421343</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4883,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>272.5108437565973</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>272.5108437565973</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
         <v>1960.027136360783</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.8505360578489</v>
+        <v>368.1116004253909</v>
       </c>
       <c r="C10" t="n">
-        <v>164.8505360578489</v>
+        <v>368.1116004253909</v>
       </c>
       <c r="D10" t="n">
-        <v>164.8505360578489</v>
+        <v>368.1116004253909</v>
       </c>
       <c r="E10" t="n">
-        <v>164.8505360578489</v>
+        <v>368.1116004253909</v>
       </c>
       <c r="F10" t="n">
-        <v>164.8505360578489</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="G10" t="n">
-        <v>164.8505360578489</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="H10" t="n">
-        <v>164.8505360578489</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -4984,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>838.7584108747913</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>838.7584108747913</v>
       </c>
       <c r="T10" t="n">
-        <v>622.0429194582225</v>
+        <v>838.7584108747913</v>
       </c>
       <c r="U10" t="n">
-        <v>622.0429194582225</v>
+        <v>553.3196191166921</v>
       </c>
       <c r="V10" t="n">
-        <v>622.0429194582225</v>
+        <v>553.3196191166921</v>
       </c>
       <c r="W10" t="n">
-        <v>622.0429194582225</v>
+        <v>553.3196191166921</v>
       </c>
       <c r="X10" t="n">
-        <v>387.9625972412056</v>
+        <v>553.3196191166921</v>
       </c>
       <c r="Y10" t="n">
-        <v>164.8505360578489</v>
+        <v>553.3196191166921</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1537.314992064227</v>
+        <v>1858.110030726599</v>
       </c>
       <c r="C11" t="n">
-        <v>1239.080171854346</v>
+        <v>1559.875210516718</v>
       </c>
       <c r="D11" t="n">
-        <v>1239.080171854346</v>
+        <v>1269.374763020574</v>
       </c>
       <c r="E11" t="n">
-        <v>931.4373282580789</v>
+        <v>961.7319194243069</v>
       </c>
       <c r="F11" t="n">
-        <v>609.483571075245</v>
+        <v>639.778162241473</v>
       </c>
       <c r="G11" t="n">
-        <v>291.2614968504365</v>
+        <v>321.5560880166645</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5068,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2905.82359028062</v>
+        <v>2977.396464052381</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002408</v>
+        <v>2977.396464052381</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993115</v>
+        <v>2730.230336043088</v>
       </c>
       <c r="W11" t="n">
-        <v>2221.78706024859</v>
+        <v>2454.171982298564</v>
       </c>
       <c r="X11" t="n">
-        <v>2144.419084280646</v>
+        <v>2159.660058518809</v>
       </c>
       <c r="Y11" t="n">
-        <v>1842.869056488435</v>
+        <v>1858.110030726599</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5120,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551001</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979808</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443716</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445329</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311667</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5206,7 +5208,7 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
@@ -5236,13 +5238,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553814</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1320.171044252416</v>
+        <v>1480.983092530629</v>
       </c>
       <c r="C14" t="n">
-        <v>1021.936224042535</v>
+        <v>1182.748272320748</v>
       </c>
       <c r="D14" t="n">
-        <v>731.4357765463913</v>
+        <v>1053.334238328372</v>
       </c>
       <c r="E14" t="n">
-        <v>423.7929329501241</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>423.7929329501241</v>
+        <v>423.7376375492709</v>
       </c>
       <c r="G14" t="n">
-        <v>105.5708587253156</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5309,19 +5311,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2745.011542002408</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="V14" t="n">
-        <v>2497.845413993115</v>
+        <v>2658.657462271327</v>
       </c>
       <c r="W14" t="n">
-        <v>2221.78706024859</v>
+        <v>2382.599108526803</v>
       </c>
       <c r="X14" t="n">
-        <v>1927.275136468836</v>
+        <v>2088.087184747048</v>
       </c>
       <c r="Y14" t="n">
-        <v>1625.725108676625</v>
+        <v>1786.537156954838</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5357,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979811</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
         <v>160.810741531167</v>
@@ -5440,13 +5442,13 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
         <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
         <v>1368.802215879041</v>
@@ -5467,19 +5469,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1827.815439560371</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1529.58061935049</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1239.080171854346</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>931.4373282580789</v>
+        <v>827.8895422975455</v>
       </c>
       <c r="F17" t="n">
-        <v>609.483571075245</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>291.2614968504365</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>62.11912770411553</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,25 +5542,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3105.956385205776</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
-        <v>2977.396464052381</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2816.584415774169</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2569.418287764875</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2293.359934020351</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>1998.848010240597</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1827.815439560371</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C18" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D18" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E18" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F18" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G18" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H18" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="L18" t="n">
-        <v>174.7633905351325</v>
+        <v>1271.186936128453</v>
       </c>
       <c r="M18" t="n">
-        <v>802.5350401618138</v>
+        <v>1898.958585755135</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>2183.814733898398</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2700.335016489379</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Q18" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R18" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S18" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T18" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U18" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V18" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W18" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X18" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y18" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>493.0843669551004</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>417.8199303082779</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>357.127498497981</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>296.5093676443719</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>234.1241141445331</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>160.810741531167</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>100.2728717798493</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>125.3967468362513</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K19" t="n">
-        <v>300.2831496757665</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L19" t="n">
-        <v>557.4621512791396</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M19" t="n">
-        <v>836.805091346977</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>1113.046087107759</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O19" t="n">
-        <v>1368.802215879041</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1581.729743385192</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1678.203301484817</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1649.242993404582</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1541.36759087432</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>1400.589220329742</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>1210.091109858832</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>1039.052445966844</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>850.6627251852103</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>711.5230842553817</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>583.3517043592134</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1827.815439560371</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1529.58061935049</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1239.080171854346</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>931.4373282580789</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>609.483571075245</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>291.2614968504365</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,25 +5779,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3105.956385205776</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
-        <v>3105.956385205776</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>3105.956385205776</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2858.790257196483</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2582.731903451959</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2434.91953177679</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>2133.36950398458</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5834,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>456.9185815712231</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1084.690231197904</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>493.0843669551004</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>417.8199303082779</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>357.127498497981</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>296.5093676443719</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>234.1241141445331</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>160.810741531167</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>100.2728717798493</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>125.3967468362513</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>300.2831496757665</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L22" t="n">
-        <v>557.4621512791398</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
-        <v>836.8050913469772</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>1113.04608710776</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>1368.802215879041</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1581.729743385193</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1678.203301484817</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
-        <v>1649.242993404582</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1541.36759087432</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>1400.589220329742</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>1210.091109858832</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>1039.052445966844</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>850.6627251852103</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>711.5230842553817</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>583.3517043592134</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1827.815439560371</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1529.58061935049</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
-        <v>1239.080171854346</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>931.4373282580789</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>609.483571075245</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>291.2614968504365</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,25 +6016,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205776</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.956385205776</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>3105.956385205776</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
-        <v>2858.790257196483</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2729.431455556545</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2434.91953177679</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
-        <v>2133.36950398458</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6071,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>96.81867335321709</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>580.3847592515303</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.156408878212</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N24" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>493.0843669551004</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>417.819930308278</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>357.1274984979811</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>296.5093676443719</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>234.1241141445332</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>160.810741531167</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>100.2728717798493</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>125.3967468362513</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>300.2831496757665</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>557.4621512791394</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>836.805091346977</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>1113.04608710776</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>1368.802215879041</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1581.729743385192</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1678.203301484817</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1649.242993404582</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1541.36759087432</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>1400.589220329742</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>1210.091109858832</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>1039.052445966845</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>850.6627251852102</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>711.5230842553817</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>583.3517043592134</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1549.258117997884</v>
+        <v>1871.211875180718</v>
       </c>
       <c r="C26" t="n">
-        <v>1251.023297788003</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D26" t="n">
-        <v>960.522850291859</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E26" t="n">
-        <v>652.8800066955919</v>
+        <v>974.833763878426</v>
       </c>
       <c r="F26" t="n">
-        <v>652.8800066955919</v>
+        <v>652.880006695592</v>
       </c>
       <c r="G26" t="n">
-        <v>334.6579324707834</v>
+        <v>334.6579324707835</v>
       </c>
       <c r="H26" t="n">
         <v>105.5155633244624</v>
@@ -6251,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>3034.383511434015</v>
+        <v>2977.396464052381</v>
       </c>
       <c r="U26" t="n">
-        <v>2974.098615747876</v>
+        <v>2816.584415774168</v>
       </c>
       <c r="V26" t="n">
-        <v>2726.932487738582</v>
+        <v>2569.418287764875</v>
       </c>
       <c r="W26" t="n">
-        <v>2450.874133994058</v>
+        <v>2569.418287764875</v>
       </c>
       <c r="X26" t="n">
-        <v>2156.362210214303</v>
+        <v>2274.90636398512</v>
       </c>
       <c r="Y26" t="n">
-        <v>1854.812182422093</v>
+        <v>1973.356336192909</v>
       </c>
     </row>
     <row r="27">
@@ -6309,10 +6311,10 @@
         <v>381.858273766342</v>
       </c>
       <c r="L27" t="n">
-        <v>568.1699486069232</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M27" t="n">
-        <v>568.1699486069232</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N27" t="n">
         <v>1223.947919817482</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>493.0843669551006</v>
+        <v>1920.837450676061</v>
       </c>
       <c r="C28" t="n">
-        <v>417.8199303082781</v>
+        <v>1845.573014029238</v>
       </c>
       <c r="D28" t="n">
-        <v>357.1274984979812</v>
+        <v>1784.880582218941</v>
       </c>
       <c r="E28" t="n">
-        <v>296.509367644372</v>
+        <v>1724.262451365332</v>
       </c>
       <c r="F28" t="n">
-        <v>234.1241141445332</v>
+        <v>1661.877197865493</v>
       </c>
       <c r="G28" t="n">
-        <v>160.810741531167</v>
+        <v>1588.563825252127</v>
       </c>
       <c r="H28" t="n">
-        <v>100.2728717798493</v>
+        <v>1528.025955500809</v>
       </c>
       <c r="I28" t="n">
-        <v>62.11912770411553</v>
+        <v>1489.872211425075</v>
       </c>
       <c r="J28" t="n">
-        <v>125.3967468362513</v>
+        <v>1553.149830557211</v>
       </c>
       <c r="K28" t="n">
-        <v>300.2831496757664</v>
+        <v>1728.036233396726</v>
       </c>
       <c r="L28" t="n">
-        <v>557.4621512791394</v>
+        <v>1985.215235000099</v>
       </c>
       <c r="M28" t="n">
-        <v>836.8050913469767</v>
+        <v>2264.558175067936</v>
       </c>
       <c r="N28" t="n">
-        <v>1113.046087107759</v>
+        <v>2540.799170828719</v>
       </c>
       <c r="O28" t="n">
-        <v>1368.80221587904</v>
+        <v>2796.5552996</v>
       </c>
       <c r="P28" t="n">
-        <v>1581.729743385192</v>
+        <v>3009.482827106152</v>
       </c>
       <c r="Q28" t="n">
-        <v>1678.203301484817</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R28" t="n">
-        <v>1649.242993404582</v>
+        <v>3076.996077125541</v>
       </c>
       <c r="S28" t="n">
-        <v>1541.367590874319</v>
+        <v>2969.120674595279</v>
       </c>
       <c r="T28" t="n">
-        <v>1400.589220329742</v>
+        <v>2828.342304050702</v>
       </c>
       <c r="U28" t="n">
-        <v>1210.091109858831</v>
+        <v>2637.844193579791</v>
       </c>
       <c r="V28" t="n">
-        <v>1039.052445966844</v>
+        <v>2466.805529687804</v>
       </c>
       <c r="W28" t="n">
-        <v>850.6627251852103</v>
+        <v>2278.41580890617</v>
       </c>
       <c r="X28" t="n">
-        <v>711.5230842553818</v>
+        <v>2139.276167976342</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.3517043592135</v>
+        <v>2011.104788080174</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1614.059487414177</v>
+        <v>1871.211875180718</v>
       </c>
       <c r="C29" t="n">
-        <v>1352.560722599516</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D29" t="n">
-        <v>1098.796330498592</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E29" t="n">
-        <v>827.8895422975452</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F29" t="n">
-        <v>542.6718405099314</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G29" t="n">
-        <v>261.1858216803431</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H29" t="n">
-        <v>68.77950792924223</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6488,25 +6490,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>3071.119566829235</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T29" t="n">
-        <v>2979.295701071061</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U29" t="n">
-        <v>2855.219708188068</v>
+        <v>2873.571463155802</v>
       </c>
       <c r="V29" t="n">
-        <v>2644.789635573994</v>
+        <v>2873.571463155802</v>
       </c>
       <c r="W29" t="n">
-        <v>2405.46733722469</v>
+        <v>2597.513109411278</v>
       </c>
       <c r="X29" t="n">
-        <v>2147.691468840156</v>
+        <v>2303.001185631523</v>
       </c>
       <c r="Y29" t="n">
-        <v>1882.877496443165</v>
+        <v>2001.451157839313</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.973980501895</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>235.9319791885594</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C31" t="n">
-        <v>197.4035979369571</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D31" t="n">
-        <v>173.4472215218803</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E31" t="n">
-        <v>149.5651460634913</v>
+        <v>296.509367644372</v>
       </c>
       <c r="F31" t="n">
-        <v>123.9159479588727</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G31" t="n">
-        <v>87.33863074072673</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H31" t="n">
-        <v>63.53681638462917</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I31" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>62.11912770411553</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K31" t="n">
-        <v>143.9541688140574</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L31" t="n">
-        <v>308.0818086878572</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M31" t="n">
-        <v>499.953029634305</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N31" t="n">
-        <v>683.1426636655142</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O31" t="n">
-        <v>974.9038003296507</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P31" t="n">
-        <v>1094.779966106229</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q31" t="n">
-        <v>1098.20216247628</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R31" t="n">
-        <v>1098.20216247628</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S31" t="n">
-        <v>1027.062815341238</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T31" t="n">
-        <v>923.0205001918806</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U31" t="n">
-        <v>769.25844511619</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V31" t="n">
-        <v>634.9558366194227</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W31" t="n">
-        <v>483.3021712330088</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X31" t="n">
-        <v>380.8985856984004</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y31" t="n">
-        <v>289.4632611974523</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6691,7 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G32" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H32" t="n">
         <v>68.77950792924223</v>
@@ -6725,7 +6727,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T32" t="n">
         <v>2979.295701071061</v>
@@ -6737,7 +6739,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X32" t="n">
         <v>2147.691468840156</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C33" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D33" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E33" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F33" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G33" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H33" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J33" t="n">
-        <v>175.2341099238429</v>
+        <v>900.7358324498676</v>
       </c>
       <c r="K33" t="n">
-        <v>494.9732559860694</v>
+        <v>900.7358324498676</v>
       </c>
       <c r="L33" t="n">
-        <v>494.9732559860694</v>
+        <v>900.7358324498676</v>
       </c>
       <c r="M33" t="n">
-        <v>802.5350401618138</v>
+        <v>1528.507482076549</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>2184.285453287108</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>2700.805735878089</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2871.591293650886</v>
       </c>
       <c r="Q33" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R33" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S33" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T33" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U33" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V33" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W33" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X33" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y33" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.9319791885594</v>
+        <v>2243.686201918055</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369571</v>
+        <v>2205.157820666453</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4472215218803</v>
+        <v>2181.201444251376</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634913</v>
+        <v>2157.319368792987</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588727</v>
+        <v>2131.670170688369</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072673</v>
+        <v>2095.092853470223</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462917</v>
+        <v>2071.291039114125</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411553</v>
+        <v>2069.873350433611</v>
       </c>
       <c r="J34" t="n">
-        <v>161.4017547291066</v>
+        <v>2075.452993041795</v>
       </c>
       <c r="K34" t="n">
-        <v>243.2367958390485</v>
+        <v>2157.288034151737</v>
       </c>
       <c r="L34" t="n">
-        <v>407.3644357128483</v>
+        <v>2321.415674025537</v>
       </c>
       <c r="M34" t="n">
-        <v>593.6560140511123</v>
+        <v>2507.707252363801</v>
       </c>
       <c r="N34" t="n">
-        <v>776.8456480823215</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O34" t="n">
-        <v>939.5504151240295</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P34" t="n">
-        <v>1059.426580900608</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q34" t="n">
-        <v>1090.581152532863</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R34" t="n">
-        <v>1098.20216247628</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S34" t="n">
-        <v>1027.062815341238</v>
+        <v>3034.817038070734</v>
       </c>
       <c r="T34" t="n">
-        <v>923.0205001918806</v>
+        <v>2930.774722921377</v>
       </c>
       <c r="U34" t="n">
-        <v>769.25844511619</v>
+        <v>2777.012667845686</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194227</v>
+        <v>2642.710059348919</v>
       </c>
       <c r="W34" t="n">
-        <v>483.3021712330088</v>
+        <v>2491.056393962505</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856984004</v>
+        <v>2388.652808427897</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.4632611974523</v>
+        <v>2297.217483926948</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6922,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803428</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6962,7 +6964,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,10 +6973,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7020,10 +7022,10 @@
         <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>381.858273766342</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>1009.629923393023</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>2243.686201918055</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>2205.157820666453</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>2181.201444251376</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>2157.319368792987</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>2131.670170688369</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>2095.092853470223</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>2071.291039114125</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>2069.873350433611</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>2069.873350433611</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>2157.288034151737</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128483</v>
+        <v>2321.415674025537</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6560140511123</v>
+        <v>2507.707252363801</v>
       </c>
       <c r="N37" t="n">
-        <v>776.8456480823215</v>
+        <v>2690.89688639501</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>3034.817038070734</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>2930.774722921377</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>2777.012667845686</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>2642.710059348919</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>2491.056393962505</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>2388.652808427897</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>2297.217483926948</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7159,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975455</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7199,7 +7201,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,16 +7210,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7253,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M39" t="n">
-        <v>865.4243596646552</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>2243.686201918055</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>2205.157820666453</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>2181.201444251376</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>2157.319368792987</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>2131.670170688369</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>2095.092853470223</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>2071.291039114125</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>2069.873350433611</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>2069.873350433611</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>2151.708391543553</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>2321.415674025537</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511123</v>
+        <v>2507.707252363801</v>
       </c>
       <c r="N40" t="n">
-        <v>776.8456480823215</v>
+        <v>2690.89688639501</v>
       </c>
       <c r="O40" t="n">
-        <v>939.5504151240295</v>
+        <v>2853.601653436718</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>3034.817038070734</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>2930.774722921377</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>2777.012667845686</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>2642.710059348919</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>2491.056393962505</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>2388.652808427897</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>2297.217483926948</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1857.926460970601</v>
+        <v>1160.318517293599</v>
       </c>
       <c r="C41" t="n">
-        <v>1501.487014868751</v>
+        <v>1054.760027357834</v>
       </c>
       <c r="D41" t="n">
-        <v>1501.487014868751</v>
+        <v>1054.760027357834</v>
       </c>
       <c r="E41" t="n">
-        <v>1135.639545380516</v>
+        <v>1054.760027357834</v>
       </c>
       <c r="F41" t="n">
-        <v>755.4811623057142</v>
+        <v>712.8247043051482</v>
       </c>
       <c r="G41" t="n">
-        <v>451.0671842547197</v>
+        <v>374.6210642104876</v>
       </c>
       <c r="H41" t="n">
-        <v>163.7201892164305</v>
+        <v>125.4971291943145</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7438,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>2976.178885542047</v>
+        <v>3014.401945564163</v>
       </c>
       <c r="T41" t="n">
-        <v>2789.414338496684</v>
+        <v>2865.860458540916</v>
       </c>
       <c r="U41" t="n">
-        <v>2570.397664326502</v>
+        <v>2685.066844392851</v>
       </c>
       <c r="V41" t="n">
-        <v>2570.397664326502</v>
+        <v>2417.919150513706</v>
       </c>
       <c r="W41" t="n">
-        <v>2570.397664326502</v>
+        <v>2121.87923089933</v>
       </c>
       <c r="X41" t="n">
-        <v>2217.681114654779</v>
+        <v>1807.385741249723</v>
       </c>
       <c r="Y41" t="n">
-        <v>1857.926460970601</v>
+        <v>1485.85414758766</v>
       </c>
     </row>
     <row r="42">
@@ -7491,13 +7493,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N42" t="n">
         <v>1863.93438008877</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>433.0497623468341</v>
+        <v>2217.379873437361</v>
       </c>
       <c r="C43" t="n">
-        <v>433.0497623468341</v>
+        <v>2122.133870920686</v>
       </c>
       <c r="D43" t="n">
-        <v>433.0497623468341</v>
+        <v>2041.459873240537</v>
       </c>
       <c r="E43" t="n">
-        <v>314.2270056012568</v>
+        <v>1960.860176517076</v>
       </c>
       <c r="F43" t="n">
-        <v>193.6371262094499</v>
+        <v>1878.493357147385</v>
       </c>
       <c r="G43" t="n">
-        <v>62.11912770411553</v>
+        <v>1785.198418664167</v>
       </c>
       <c r="H43" t="n">
-        <v>62.11912770411553</v>
+        <v>1704.678983042997</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>1646.543673097411</v>
       </c>
       <c r="J43" t="n">
-        <v>68.35039299953333</v>
+        <v>1690.237359520505</v>
       </c>
       <c r="K43" t="n">
-        <v>186.1904420023305</v>
+        <v>1845.539829650978</v>
       </c>
       <c r="L43" t="n">
-        <v>386.3230897689855</v>
+        <v>2083.134898545309</v>
       </c>
       <c r="M43" t="n">
-        <v>608.6196760001048</v>
+        <v>2342.893905904104</v>
       </c>
       <c r="N43" t="n">
-        <v>827.8143179241692</v>
+        <v>2599.550968955845</v>
       </c>
       <c r="O43" t="n">
-        <v>1026.524092858733</v>
+        <v>2835.723165018084</v>
       </c>
       <c r="P43" t="n">
-        <v>1182.405266528166</v>
+        <v>3029.066759815194</v>
       </c>
       <c r="Q43" t="n">
-        <v>1221.832470791072</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R43" t="n">
-        <v>1221.832470791072</v>
+        <v>3057.014511255689</v>
       </c>
       <c r="S43" t="n">
-        <v>1221.832470791072</v>
+        <v>2929.157542855575</v>
       </c>
       <c r="T43" t="n">
-        <v>1022.849474354527</v>
+        <v>2768.397606441145</v>
       </c>
       <c r="U43" t="n">
-        <v>1022.849474354527</v>
+        <v>2666.801952239186</v>
       </c>
       <c r="V43" t="n">
-        <v>793.606184570571</v>
+        <v>2475.781722477346</v>
       </c>
       <c r="W43" t="n">
-        <v>619.4257681349707</v>
+        <v>2475.781722477346</v>
       </c>
       <c r="X43" t="n">
-        <v>619.4257681349707</v>
+        <v>2475.781722477346</v>
       </c>
       <c r="Y43" t="n">
-        <v>433.0497623468341</v>
+        <v>2327.628776711326</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2397.459527283501</v>
+        <v>1683.458426803564</v>
       </c>
       <c r="C44" t="n">
-        <v>2004.284025786432</v>
+        <v>1365.242040723831</v>
       </c>
       <c r="D44" t="n">
-        <v>1618.8428970031</v>
+        <v>1054.760027357834</v>
       </c>
       <c r="E44" t="n">
-        <v>1216.259372119644</v>
+        <v>1054.760027357834</v>
       </c>
       <c r="F44" t="n">
-        <v>799.3649336496217</v>
+        <v>712.8247043051483</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2021781376249</v>
+        <v>374.6210642104876</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>125.4971291943145</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,28 +7672,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3067.963471491298</v>
+        <v>3014.401945564163</v>
       </c>
       <c r="T44" t="n">
-        <v>3067.963471491298</v>
+        <v>2865.860458540916</v>
       </c>
       <c r="U44" t="n">
-        <v>3067.963471491298</v>
+        <v>2685.066844392851</v>
       </c>
       <c r="V44" t="n">
-        <v>3067.963471491298</v>
+        <v>2417.919150513706</v>
       </c>
       <c r="W44" t="n">
-        <v>3067.963471491298</v>
+        <v>2121.87923089933</v>
       </c>
       <c r="X44" t="n">
-        <v>3067.963471491298</v>
+        <v>2121.87923089933</v>
       </c>
       <c r="Y44" t="n">
-        <v>2797.954272994898</v>
+        <v>1800.347637237267</v>
       </c>
     </row>
     <row r="45">
@@ -7737,13 +7739,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1606.310991511064</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>555.24607037101</v>
+        <v>215.500440166376</v>
       </c>
       <c r="C46" t="n">
-        <v>555.24607037101</v>
+        <v>120.2544376497014</v>
       </c>
       <c r="D46" t="n">
-        <v>399.6129572735247</v>
+        <v>120.2544376497014</v>
       </c>
       <c r="E46" t="n">
-        <v>244.0541451327272</v>
+        <v>120.2544376497014</v>
       </c>
       <c r="F46" t="n">
-        <v>230.37318160467</v>
+        <v>120.2544376497014</v>
       </c>
       <c r="G46" t="n">
-        <v>62.11912770411553</v>
+        <v>120.2544376497014</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411553</v>
+        <v>120.2544376497014</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>105.8128141272093</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>261.1152842576823</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>498.7103531520133</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>758.4693605108087</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>1015.126423562549</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>1251.298619624788</v>
       </c>
       <c r="P46" t="n">
-        <v>960.1439538756169</v>
+        <v>1444.642214421898</v>
       </c>
       <c r="Q46" t="n">
-        <v>963.5661502456679</v>
+        <v>1521.53183981248</v>
       </c>
       <c r="R46" t="n">
-        <v>963.5661502456679</v>
+        <v>1521.53183981248</v>
       </c>
       <c r="S46" t="n">
-        <v>963.5661502456679</v>
+        <v>1403.65462517456</v>
       </c>
       <c r="T46" t="n">
-        <v>963.5661502456679</v>
+        <v>1242.894688760131</v>
       </c>
       <c r="U46" t="n">
-        <v>963.5661502456679</v>
+        <v>1032.415012419368</v>
       </c>
       <c r="V46" t="n">
-        <v>963.5661502456679</v>
+        <v>841.3947826575284</v>
       </c>
       <c r="W46" t="n">
-        <v>963.5661502456679</v>
+        <v>633.0234960060423</v>
       </c>
       <c r="X46" t="n">
-        <v>963.5661502456679</v>
+        <v>473.9022892063616</v>
       </c>
       <c r="Y46" t="n">
-        <v>740.4540890623113</v>
+        <v>325.7493434403411</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>383.2091448686429</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>183.6819871939849</v>
+        <v>331.0195299270391</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>379.5248125622476</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8058,25 +8060,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>310.2665579406502</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>349.2438226594827</v>
       </c>
       <c r="M3" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>315.3330879923178</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>322.6485340270401</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8225,16 +8227,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>188.2032506601437</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>213.6604073397399</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,19 +8300,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>270.9870523840202</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>660.0464466777704</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>653.0314374826252</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>270.6522400901343</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,10 +8467,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>223.8267004481029</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,13 +8531,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>202.8119771871982</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
@@ -8544,7 +8546,7 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>353.4472259067894</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8766,25 +8768,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>459.8553156798577</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>173.3576105420024</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9003,25 +9005,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>624.8237719316268</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9179,7 +9181,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9246,13 +9248,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271601</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9480,25 +9482,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>374.5901161977063</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,10 +9719,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
@@ -9732,7 +9734,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9957,13 +9959,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>278.2539578070002</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10200,16 +10202,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>630.6030013529515</v>
       </c>
       <c r="O30" t="n">
-        <v>326.5064297756122</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,13 +10430,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>403.0555909137002</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
@@ -10443,10 +10445,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10668,13 +10670,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N36" t="n">
-        <v>301.8549375253374</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,25 +10901,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>262.5710112738847</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11066,7 +11068,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
         <v>682.2612020826953</v>
@@ -11139,7 +11141,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11148,7 +11150,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>345.5977578821532</v>
+        <v>668.5665922884425</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11303,7 +11305,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
         <v>682.2612020826953</v>
@@ -11385,16 +11387,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>464.9323088406971</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>12.97082600957768</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>214.9725083336923</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.4755493687297</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7342196110055</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>183.8337317438697</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>302.4985237799665</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>129.2122825408653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>145.2325565835401</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>145.2325565835403</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>201.3755073778975</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24452,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110056</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24491,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.85714503404354</v>
       </c>
       <c r="T26" t="n">
-        <v>127.2743219418611</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>99.5218810661525</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>173.5616339479578</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24731,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>360.121103413015</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>210.5313171825283</v>
       </c>
       <c r="D41" t="n">
-        <v>345.218022654231</v>
+        <v>307.3771932323361</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>324.348165371458</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>71.29259484512443</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.244289736065326</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25685,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>302.3170463622488</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>330.9203498401275</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>146.9872436631203</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>132.1343719134027</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>117.7080871252424</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>117.555070686853</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>95.39478626802493</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>86.29328463248085</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>164.4192281380082</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>246.2157089992501</v>
+        <v>107.7951819174159</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>71.68979093562186</v>
+        <v>206.2875737849713</v>
       </c>
       <c r="X43" t="n">
-        <v>195.3708241535788</v>
+        <v>157.5299947316839</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>206.5599556617538</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>324.348165371458</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>311.3485547531109</v>
       </c>
       <c r="Y44" t="n">
-        <v>125.2166954771688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,28 +26025,28 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>79.86725770334756</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>79.79369975622667</v>
       </c>
       <c r="F46" t="n">
-        <v>142.2085215463801</v>
+        <v>81.54315117599394</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>92.36198909838608</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>79.71424126495812</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>48.45245521058597</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>9.879956224572808</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>576400.5326209008</v>
+        <v>598226.340514456</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>596792.0551790125</v>
+        <v>598226.340514456</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>572949.8330104984</v>
+        <v>605517.9992408541</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>572949.8330104984</v>
+        <v>605517.9992408539</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>572949.8330104984</v>
+        <v>605517.9992408539</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>605517.9992408539</v>
+        <v>572949.8330104984</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>605517.9992408539</v>
+        <v>605517.9992408541</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>496546.6977145802</v>
+        <v>546746.2461885972</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>446189.4896812978</v>
+        <v>546746.2461885971</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>721328.7123734275</v>
+        <v>721328.7123734272</v>
       </c>
       <c r="C2" t="n">
         <v>721328.712373427</v>
       </c>
       <c r="D2" t="n">
-        <v>721328.7123734273</v>
+        <v>721328.7123734269</v>
       </c>
       <c r="E2" t="n">
-        <v>677904.4907329525</v>
+        <v>677904.490732954</v>
       </c>
       <c r="F2" t="n">
-        <v>677904.4907329539</v>
+        <v>677904.4907329543</v>
       </c>
       <c r="G2" t="n">
-        <v>677904.4907329542</v>
+        <v>721328.7123734275</v>
       </c>
       <c r="H2" t="n">
-        <v>677904.4907329539</v>
+        <v>721328.7123734275</v>
       </c>
       <c r="I2" t="n">
-        <v>677904.4907329539</v>
+        <v>721328.7123734276</v>
       </c>
       <c r="J2" t="n">
         <v>677904.4907329539</v>
       </c>
       <c r="K2" t="n">
-        <v>721328.7123734273</v>
+        <v>677904.4907329539</v>
       </c>
       <c r="L2" t="n">
-        <v>721328.7123734273</v>
+        <v>721328.7123734275</v>
       </c>
       <c r="M2" t="n">
+        <v>721328.7123734275</v>
+      </c>
+      <c r="N2" t="n">
         <v>721328.7123734276</v>
       </c>
-      <c r="N2" t="n">
-        <v>721328.7123734273</v>
-      </c>
       <c r="O2" t="n">
-        <v>576033.6436717298</v>
+        <v>642966.3749704184</v>
       </c>
       <c r="P2" t="n">
-        <v>508890.6996273523</v>
+        <v>642966.3749704182</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77065.21187122262</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
-        <v>109100.4374309014</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7378.332773693036</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>29094.95587301434</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135360.9289584996</v>
+        <v>200837.4980720422</v>
       </c>
       <c r="K3" t="n">
-        <v>116007.7046846358</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6011.620320080946</v>
+        <v>58189.9117460287</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989166</v>
+        <v>46121.92123989169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1177.707664501538</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287164.5716181563</v>
+        <v>211575.8953047903</v>
       </c>
       <c r="C4" t="n">
-        <v>216543.2133756998</v>
+        <v>211575.8953047903</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26430,22 +26432,22 @@
         <v>161760.5563326216</v>
       </c>
       <c r="G4" t="n">
-        <v>161760.5563326216</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="H4" t="n">
-        <v>161760.5563326216</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="I4" t="n">
-        <v>161760.5563326216</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="J4" t="n">
         <v>161760.5563326215</v>
       </c>
       <c r="K4" t="n">
-        <v>186364.8769761035</v>
+        <v>161760.5563326215</v>
       </c>
       <c r="L4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761035</v>
@@ -26454,10 +26456,10 @@
         <v>186364.8769761035</v>
       </c>
       <c r="O4" t="n">
-        <v>103473.7730034136</v>
+        <v>141770.1932483373</v>
       </c>
       <c r="P4" t="n">
-        <v>65070.2855682401</v>
+        <v>141770.1932483372</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47609.22728839959</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>68141.28693741027</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,19 +26484,19 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>55112.2895089091</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>55112.2895089091</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>55112.2895089091</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>55112.2895089091</v>
       </c>
       <c r="K5" t="n">
-        <v>58169.76931551966</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="L5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26508,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>50268.01686173835</v>
+        <v>53449.25755040764</v>
       </c>
       <c r="P5" t="n">
-        <v>47210.5370551278</v>
+        <v>53449.25755040763</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>309489.701595649</v>
+        <v>241971.5537997188</v>
       </c>
       <c r="C6" t="n">
-        <v>327543.7746294156</v>
+        <v>440167.3597914635</v>
       </c>
       <c r="D6" t="n">
-        <v>432789.0270177708</v>
+        <v>440167.3597914634</v>
       </c>
       <c r="E6" t="n">
-        <v>330578.7137537096</v>
+        <v>330578.7137537112</v>
       </c>
       <c r="F6" t="n">
+        <v>461031.6448914236</v>
+      </c>
+      <c r="G6" t="n">
+        <v>447699.11020879</v>
+      </c>
+      <c r="H6" t="n">
+        <v>476794.0660818042</v>
+      </c>
+      <c r="I6" t="n">
+        <v>476794.0660818044</v>
+      </c>
+      <c r="J6" t="n">
+        <v>260194.146819381</v>
+      </c>
+      <c r="K6" t="n">
         <v>461031.6448914232</v>
       </c>
-      <c r="G6" t="n">
-        <v>461031.6448914235</v>
-      </c>
-      <c r="H6" t="n">
-        <v>461031.6448914232</v>
-      </c>
-      <c r="I6" t="n">
-        <v>461031.6448914232</v>
-      </c>
-      <c r="J6" t="n">
-        <v>325670.7159329237</v>
-      </c>
-      <c r="K6" t="n">
-        <v>360786.3613971683</v>
-      </c>
       <c r="L6" t="n">
-        <v>470782.4457617233</v>
+        <v>418604.1543357756</v>
       </c>
       <c r="M6" t="n">
-        <v>430672.1448419127</v>
+        <v>430672.1448419126</v>
       </c>
       <c r="N6" t="n">
-        <v>476794.0660818042</v>
+        <v>476794.0660818044</v>
       </c>
       <c r="O6" t="n">
-        <v>422291.8538065779</v>
+        <v>446569.216507172</v>
       </c>
       <c r="P6" t="n">
-        <v>396609.8770039844</v>
+        <v>447746.9241716733</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G2" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
+        <v>93.9912744743164</v>
+      </c>
+      <c r="K2" t="n">
         <v>93.99127447431643</v>
-      </c>
-      <c r="K2" t="n">
-        <v>130.3599693155844</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26724,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>567.6593246284585</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431643</v>
+        <v>57.62257963304845</v>
       </c>
       <c r="K2" t="n">
-        <v>36.36869484126795</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>72.73738968253588</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.472134580626923</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>337.6983494903074</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>23.75280164083648</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>337.6983494903074</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>23.75280164083648</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.99127447431643</v>
+        <v>57.62257963304845</v>
       </c>
       <c r="P2" t="n">
-        <v>36.36869484126795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>337.6983494903074</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>23.75280164083648</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,19 +27381,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>182.7645189471708</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>179.0701528187257</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>136.8655229224696</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>23.23422713159621</v>
+        <v>48.55428574213175</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27455,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,10 +27472,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27509,19 +27511,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>98.61334024066306</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27540,7 +27542,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27549,7 +27551,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>22.49194565313516</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27597,13 +27599,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>59.45859630258343</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>51.29912677490694</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>234.1195374871262</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>92.17987260775777</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27780,16 +27782,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>189.5127696447259</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>93.42545909249179</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27901,10 +27903,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>81.87846571386379</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27913,13 +27915,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>66.56369621643881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28020,7 +28022,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28029,7 +28031,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>45.47577828470969</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>13.76041352312701</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28074,10 +28076,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>93.99127447431644</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K19" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P19" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.99127447431658</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>93.99127447431644</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>93.99127447431644</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
-        <v>93.9912744743167</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>93.99127447431644</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29088,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>93.99127447431644</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>93.99127447431644</v>
+        <v>5.636002634528595</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>93.99127447431644</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.99127447431644</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431643</v>
+        <v>93.9912744743164</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y29" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M31" t="n">
-        <v>5.636002634529063</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.3599693155844</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="32">
@@ -29928,20 +29930,20 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
+        <v>35.71049010668816</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
@@ -29949,10 +29951,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.0125002648524</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
         <v>130.3599693155844</v>
@@ -30165,22 +30167,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>35.71049010668801</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30402,31 +30404,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5.636002634528893</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>28.01250026485243</v>
-      </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="C41" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="D41" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="E41" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="F41" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="G41" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="H41" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="I41" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>36.36869484126795</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="T41" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="U41" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="V41" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="W41" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="X41" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="Y41" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="C43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="D43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="E43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="F43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="G43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="H43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="I43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="J43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="K43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="L43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="M43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="N43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="O43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="P43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="R43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="S43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="T43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="U43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="V43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="W43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="X43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
       <c r="Y43" t="n">
-        <v>36.36869484126795</v>
+        <v>74.20952426316286</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>74.20952426316283</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>229.9609751381512</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>33.95693559625767</v>
+        <v>181.2944783293118</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>229.9609751381512</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>220.6696226073169</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>259.1834758025645</v>
       </c>
       <c r="M3" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
-        <v>229.9609751381512</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34945,16 +34947,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>39.08475932235966</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>180.9267055271019</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>567.6593246284585</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>567.6593246284585</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>127.5938369108969</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,10 +35187,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>74.26286302400655</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>113.2150418538649</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
@@ -35264,7 +35266,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>260.7596670179005</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>374.483202825691</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35588,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>539.4516590774601</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35825,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35901,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729934</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.91678700215737</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6529321611264</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>259.7767692963364</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>282.1645859271084</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>279.0313088492752</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>258.3395240113953</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P19" t="n">
-        <v>215.0783106122746</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.44803848446907</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>284.5297693407881</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.91678700215737</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6529321611264</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
-        <v>259.7767692963367</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>282.1645859271084</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>279.0313088492752</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>258.3395240113953</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>215.0783106122746</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.44803848446892</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q23" t="n">
         <v>186.7126870110591</v>
@@ -36437,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>35.0500461102036</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
@@ -36452,7 +36454,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.91678700215737</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6529321611264</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
-        <v>259.7767692963364</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>282.1645859271084</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>279.0313088492752</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>258.3395240113953</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>215.0783106122746</v>
+        <v>126.7230387724868</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.44803848446892</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>188.193610950082</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215733</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36770,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122745</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446891</v>
+        <v>97.44803848446888</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36920,16 +36922,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>545.2308884987849</v>
       </c>
       <c r="O30" t="n">
-        <v>233.8188708867233</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K31" t="n">
-        <v>82.66165768680997</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>165.78549482202</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
-        <v>193.809314087321</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>185.0400343749588</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
-        <v>294.7082188526632</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>121.0870361379582</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.456764010152483</v>
+        <v>97.44803848446891</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,13 +37150,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>310.6684688643883</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
@@ -37163,10 +37165,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37236,7 +37238,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O34" t="n">
         <v>164.3482495370789</v>
@@ -37245,10 +37247,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.46926427500488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N36" t="n">
-        <v>216.4828246711707</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,7 +37478,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>200.0587396437669</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37558,7 +37560,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565489</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37716,13 +37718,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>149.0995364028106</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37859,7 +37861,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37868,7 +37870,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>260.2256450279866</v>
+        <v>583.1944794342759</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.294207369108882</v>
+        <v>44.13503679100379</v>
       </c>
       <c r="K43" t="n">
-        <v>119.0303525280779</v>
+        <v>156.8711819499728</v>
       </c>
       <c r="L43" t="n">
-        <v>202.1541896632879</v>
+        <v>239.9950190851828</v>
       </c>
       <c r="M43" t="n">
-        <v>224.5420062940599</v>
+        <v>262.3828357159548</v>
       </c>
       <c r="N43" t="n">
-        <v>221.4087292162267</v>
+        <v>259.2495586381216</v>
       </c>
       <c r="O43" t="n">
-        <v>200.7169443783468</v>
+        <v>238.5577738002417</v>
       </c>
       <c r="P43" t="n">
-        <v>157.4557309792261</v>
+        <v>195.296560401121</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.82545885142044</v>
+        <v>77.66628827331535</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,10 +38022,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38105,16 +38107,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>372.2447499518083</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>44.13503679100376</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>156.8711819499728</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>239.9950190851828</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>262.3828357159548</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>259.2495586381216</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>238.5577738002417</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>195.296560401121</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>77.66628827331532</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3398966.253858096</v>
+        <v>3398450.624243736</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>826053.9034197842</v>
+        <v>826053.903419785</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6807927.041129067</v>
+        <v>6807927.041129066</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>91.54513126090346</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
@@ -709,25 +709,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>204.6409165276156</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>144.0795677084137</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>256.4561542453789</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>345.190671479376</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>235.4551847859273</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>187.0716389556424</v>
+        <v>57.87860001854913</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1150,10 +1150,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>145.3871838563733</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>139.3871307023137</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>108.1045920014104</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.9015659506218</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1378,19 +1378,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>59.68204672927868</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>213.8801194452801</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1587,13 +1587,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>128.1198936524527</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G14" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414339</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>65.2736611520066</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007184</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035424</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219397</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507308</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484035</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723248</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380453</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943237</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1821,16 +1821,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1846,25 +1846,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2098,10 +2098,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2301,13 +2301,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2332,13 +2332,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.48225061359</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2380,10 +2380,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>101.123016402069</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
-        <v>315.0398534825604</v>
+        <v>198.526775377974</v>
       </c>
       <c r="H26" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414342</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.203927795431</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007186</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035427</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.085507492194</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507311</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484038</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723251</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380455</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497648</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943253</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2769,19 +2769,19 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.8896660972067</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>128.9368898320087</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
         <v>287.5954430211825</v>
@@ -2803,7 +2803,7 @@
         <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
         <v>315.0398534825604</v>
@@ -2812,7 +2812,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414339</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404351</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419573</v>
+        <v>19.33415213001756</v>
       </c>
       <c r="Y29" t="n">
         <v>298.5345275142885</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007184</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035424</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219397</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507308</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484035</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723248</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380453</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
         <v>37.77220663497644</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943237</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.79664850496</v>
       </c>
       <c r="T31" t="n">
         <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662018</v>
       </c>
       <c r="V31" t="n">
         <v>169.3282772530676</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C32" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D32" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E32" t="n">
         <v>268.1977203190365</v>
@@ -3046,10 +3046,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H32" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U32" t="n">
         <v>122.835232954163</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E34" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F34" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G34" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T34" t="n">
         <v>103.0018919978638</v>
@@ -3249,13 +3249,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W34" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X34" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
@@ -3277,16 +3277,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277472</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277517</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3565,10 +3565,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>322.2802739911201</v>
+        <v>208.0527983627032</v>
       </c>
       <c r="C41" t="n">
-        <v>104.5029050364076</v>
+        <v>315.034222218936</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.3771932323362</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>324.3481653714582</v>
       </c>
       <c r="F41" t="n">
-        <v>338.5159698221591</v>
+        <v>338.5159698221593</v>
       </c>
       <c r="G41" t="n">
-        <v>334.821603693714</v>
+        <v>334.8216036937141</v>
       </c>
       <c r="H41" t="n">
-        <v>246.6326956660114</v>
+        <v>246.6326956660115</v>
       </c>
       <c r="I41" t="n">
-        <v>62.74422147529695</v>
+        <v>62.74422147529707</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>90.63889524519708</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>147.0560721530146</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>178.9856780065845</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>264.4762169403539</v>
+        <v>264.476216940354</v>
       </c>
       <c r="W41" t="n">
-        <v>293.0795204182326</v>
+        <v>293.0795204182327</v>
       </c>
       <c r="X41" t="n">
-        <v>311.3485547531109</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.316277725442</v>
+        <v>318.3162777254421</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>109.1464142412254</v>
+        <v>109.1464142412255</v>
       </c>
       <c r="C43" t="n">
-        <v>94.29354249150781</v>
+        <v>94.29354249150792</v>
       </c>
       <c r="D43" t="n">
-        <v>79.86725770334753</v>
+        <v>79.86725770334765</v>
       </c>
       <c r="E43" t="n">
-        <v>79.79369975622664</v>
+        <v>79.79369975622676</v>
       </c>
       <c r="F43" t="n">
-        <v>81.54315117599391</v>
+        <v>81.54315117599403</v>
       </c>
       <c r="G43" t="n">
-        <v>92.36198909838605</v>
+        <v>92.36198909838616</v>
       </c>
       <c r="H43" t="n">
-        <v>79.71424126495809</v>
+        <v>79.7142412649582</v>
       </c>
       <c r="I43" t="n">
-        <v>57.55395684613002</v>
+        <v>57.55395684613013</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>48.45245521058594</v>
+        <v>48.45245521058605</v>
       </c>
       <c r="S43" t="n">
-        <v>126.5783987161133</v>
+        <v>126.5783987161134</v>
       </c>
       <c r="T43" t="n">
-        <v>159.1523370502853</v>
+        <v>159.1523370502854</v>
       </c>
       <c r="U43" t="n">
-        <v>100.5796976599394</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>189.1100274642212</v>
+        <v>189.1100274642213</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>157.529994731684</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6714163083602</v>
+        <v>89.72111923661355</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>115.7203183293662</v>
+        <v>322.2802739911201</v>
       </c>
       <c r="C44" t="n">
-        <v>315.0342222189358</v>
+        <v>315.0342222189359</v>
       </c>
       <c r="D44" t="n">
         <v>307.3771932323361</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>324.3481653714581</v>
       </c>
       <c r="F44" t="n">
-        <v>338.5159698221591</v>
+        <v>338.5159698221592</v>
       </c>
       <c r="G44" t="n">
-        <v>334.821603693714</v>
+        <v>334.8216036937141</v>
       </c>
       <c r="H44" t="n">
-        <v>246.6326956660114</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>62.74422147529698</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>90.63889524519711</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>147.0560721530147</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>178.9856780065845</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>264.4762169403539</v>
+        <v>148.2771037001351</v>
       </c>
       <c r="W44" t="n">
         <v>293.0795204182326</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>311.3485547531109</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.316277725442</v>
+        <v>318.3162777254421</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>109.1464142412254</v>
+        <v>109.1464142412255</v>
       </c>
       <c r="C46" t="n">
-        <v>94.29354249150784</v>
+        <v>94.29354249150789</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>79.86725770334762</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>79.79369975622673</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>81.543151175994</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>92.36198909838613</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>79.71424126495818</v>
       </c>
       <c r="I46" t="n">
-        <v>57.55395684613005</v>
+        <v>29.20193691014033</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>48.45245521058602</v>
       </c>
       <c r="S46" t="n">
-        <v>116.6984424915405</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>159.1523370502854</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>208.3748795773552</v>
+        <v>208.3748795773553</v>
       </c>
       <c r="V46" t="n">
         <v>189.1100274642212</v>
       </c>
       <c r="W46" t="n">
-        <v>206.2875737849713</v>
+        <v>206.2875737849714</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5299947316839</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6714163083602</v>
+        <v>146.6714163083603</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1388.826628074147</v>
+        <v>680.4177695342091</v>
       </c>
       <c r="C2" t="n">
-        <v>995.6511265770774</v>
+        <v>287.2422680371397</v>
       </c>
       <c r="D2" t="n">
-        <v>610.2099977937452</v>
+        <v>287.2422680371397</v>
       </c>
       <c r="E2" t="n">
-        <v>207.6264729102897</v>
+        <v>287.2422680371397</v>
       </c>
       <c r="F2" t="n">
         <v>194.7724384806716</v>
@@ -4336,7 +4336,7 @@
         <v>191.9627430103717</v>
       </c>
       <c r="L2" t="n">
-        <v>685.2830347289006</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M2" t="n">
         <v>864.7645682749193</v>
@@ -4357,25 +4357,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T2" t="n">
-        <v>1937.641433863169</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U2" t="n">
-        <v>1730.933437370628</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V2" t="n">
-        <v>1388.826628074147</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W2" t="n">
-        <v>1388.826628074147</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X2" t="n">
-        <v>1388.826628074147</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="Y2" t="n">
-        <v>1388.826628074147</v>
+        <v>1080.912515245606</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
         <v>47.31297010154361</v>
@@ -4415,19 +4415,19 @@
         <v>367.0521161637701</v>
       </c>
       <c r="L3" t="n">
-        <v>623.6437572083089</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M3" t="n">
-        <v>623.6437572083089</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4448,13 +4448,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X3" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>356.3205825155494</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>356.3205825155494</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>356.3205825155494</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>356.3205825155494</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>356.3205825155494</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
         <v>47.31297010154361</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W4" t="n">
-        <v>541.5286012068507</v>
+        <v>689.7133721932184</v>
       </c>
       <c r="X4" t="n">
-        <v>541.5286012068507</v>
+        <v>455.6330499762015</v>
       </c>
       <c r="Y4" t="n">
-        <v>541.5286012068507</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>866.505261540228</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="C5" t="n">
-        <v>473.3297600431587</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="D5" t="n">
-        <v>473.3297600431587</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E5" t="n">
-        <v>473.3297600431587</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F5" t="n">
-        <v>460.4757256135405</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I5" t="n">
         <v>47.31297010154361</v>
@@ -4573,16 +4573,16 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>1044.265390756362</v>
+        <v>846.5749518678007</v>
       </c>
       <c r="M5" t="n">
-        <v>1590.266290800943</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N5" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>2118.077574438405</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
         <v>2180.802944936232</v>
@@ -4594,25 +4594,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T5" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W5" t="n">
-        <v>1604.635312545935</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X5" t="n">
-        <v>1215.182707478992</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y5" t="n">
-        <v>1215.182707478992</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L6" t="n">
-        <v>530.879055999857</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1116.377061006459</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N6" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O6" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.64850507718</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>556.9826573552996</v>
+        <v>247.8963582094524</v>
       </c>
       <c r="C7" t="n">
-        <v>556.9826573552996</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D7" t="n">
-        <v>556.9826573552996</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E7" t="n">
-        <v>401.4238452145021</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F7" t="n">
-        <v>401.4238452145021</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G7" t="n">
-        <v>233.1697913139477</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H7" t="n">
         <v>77.69124027544166</v>
@@ -4752,25 +4752,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W7" t="n">
-        <v>556.9826573552996</v>
+        <v>890.2967603011273</v>
       </c>
       <c r="X7" t="n">
-        <v>556.9826573552996</v>
+        <v>656.2164380841103</v>
       </c>
       <c r="Y7" t="n">
-        <v>556.9826573552996</v>
+        <v>433.1043769007537</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1261.354413709946</v>
+        <v>1151.698119716827</v>
       </c>
       <c r="C8" t="n">
-        <v>1261.354413709946</v>
+        <v>758.5226182197578</v>
       </c>
       <c r="D8" t="n">
-        <v>875.9132849266141</v>
+        <v>758.5226182197578</v>
       </c>
       <c r="E8" t="n">
-        <v>473.3297600431586</v>
+        <v>758.5226182197578</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>341.6281797497355</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>332.5058282781428</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>173.6308686433316</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>666.9511603618604</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M8" t="n">
-        <v>1212.952060406441</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.763344043903</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4828,28 +4828,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2058.339868500742</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2058.339868500742</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>2058.339868500742</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W8" t="n">
-        <v>2058.339868500742</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X8" t="n">
-        <v>2058.339868500742</v>
+        <v>1548.188828796226</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.849159421343</v>
+        <v>1151.698119716827</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>368.1116004253909</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>368.1116004253909</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>368.1116004253909</v>
+        <v>793.1268795456108</v>
       </c>
       <c r="E10" t="n">
-        <v>368.1116004253909</v>
+        <v>637.5680674048133</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7856656383638</v>
+        <v>480.2421326177862</v>
       </c>
       <c r="G10" t="n">
-        <v>210.7856656383638</v>
+        <v>311.9880787172318</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>156.5095276787258</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>838.7584108747913</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>838.7584108747913</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>838.7584108747913</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>553.3196191166921</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>553.3196191166921</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>553.3196191166921</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>553.3196191166921</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>553.3196191166921</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1858.110030726599</v>
+        <v>1609.543013684024</v>
       </c>
       <c r="C11" t="n">
-        <v>1559.875210516718</v>
+        <v>1311.308193474143</v>
       </c>
       <c r="D11" t="n">
-        <v>1269.374763020574</v>
+        <v>1020.807745977999</v>
       </c>
       <c r="E11" t="n">
-        <v>961.7319194243069</v>
+        <v>713.164902381732</v>
       </c>
       <c r="F11" t="n">
-        <v>639.778162241473</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G11" t="n">
-        <v>321.5560880166645</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
         <v>105.5155633244624</v>
@@ -5068,25 +5068,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2977.396464052381</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U11" t="n">
-        <v>2977.396464052381</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="V11" t="n">
-        <v>2730.230336043088</v>
+        <v>2787.217383424722</v>
       </c>
       <c r="W11" t="n">
-        <v>2454.171982298564</v>
+        <v>2511.159029680198</v>
       </c>
       <c r="X11" t="n">
-        <v>2159.660058518809</v>
+        <v>2216.647105900443</v>
       </c>
       <c r="Y11" t="n">
-        <v>1858.110030726599</v>
+        <v>1915.097078108233</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>494.9732559860694</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1122.744905612751</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1778.52287682331</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>2295.043159414291</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082779</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
         <v>160.810741531167</v>
@@ -5205,13 +5205,13 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469768</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O13" t="n">
         <v>1368.802215879041</v>
@@ -5232,19 +5232,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1480.983092530629</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="C14" t="n">
-        <v>1182.748272320748</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D14" t="n">
-        <v>1053.334238328372</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E14" t="n">
-        <v>745.6913947321048</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F14" t="n">
-        <v>423.7376375492709</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G14" t="n">
-        <v>105.5155633244624</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H14" t="n">
         <v>105.5155633244624</v>
@@ -5305,25 +5305,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3034.383511434015</v>
+        <v>3040.023394143143</v>
       </c>
       <c r="T14" t="n">
-        <v>2905.82359028062</v>
+        <v>2911.463472989748</v>
       </c>
       <c r="U14" t="n">
-        <v>2905.82359028062</v>
+        <v>2750.651424711535</v>
       </c>
       <c r="V14" t="n">
-        <v>2658.657462271327</v>
+        <v>2750.651424711535</v>
       </c>
       <c r="W14" t="n">
-        <v>2382.599108526803</v>
+        <v>2474.593070967011</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.087184747048</v>
+        <v>2180.081147187256</v>
       </c>
       <c r="Y14" t="n">
-        <v>1786.537156954838</v>
+        <v>1878.531119395046</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1606.310991511064</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>2122.831274102045</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551006</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443718</v>
+        <v>296.509367644372</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G16" t="n">
         <v>160.810741531167</v>
@@ -5439,13 +5439,13 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M16" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
@@ -5466,22 +5466,22 @@
         <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975455</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5551,16 +5551,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C18" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D18" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F18" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G18" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H18" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>787.6208502301403</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>1271.186936128453</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1898.958585755135</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>2183.814733898398</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>2700.335016489379</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R18" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S18" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T18" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U18" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V18" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W18" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X18" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y18" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="20">
@@ -5737,16 +5737,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975455</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
         <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5755,7 +5755,7 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5791,13 +5791,13 @@
         <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5843,13 +5843,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5913,16 +5913,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
         <v>969.3241577214669</v>
@@ -5940,22 +5940,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6016,22 +6016,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6068,25 +6068,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6150,10 +6150,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
         <v>623.4297566485498</v>
@@ -6165,34 +6165,34 @@
         <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1871.211875180718</v>
+        <v>1480.983092530629</v>
       </c>
       <c r="C26" t="n">
-        <v>1572.977054970837</v>
+        <v>1182.748272320748</v>
       </c>
       <c r="D26" t="n">
-        <v>1282.476607474693</v>
+        <v>892.2478248246044</v>
       </c>
       <c r="E26" t="n">
-        <v>974.833763878426</v>
+        <v>584.6049812283374</v>
       </c>
       <c r="F26" t="n">
-        <v>652.880006695592</v>
+        <v>262.6512240455035</v>
       </c>
       <c r="G26" t="n">
-        <v>334.6579324707835</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K26" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L26" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M26" t="n">
         <v>1605.072448403515</v>
@@ -6253,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T26" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U26" t="n">
-        <v>2816.584415774168</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="V26" t="n">
-        <v>2569.418287764875</v>
+        <v>2658.657462271327</v>
       </c>
       <c r="W26" t="n">
-        <v>2569.418287764875</v>
+        <v>2382.599108526803</v>
       </c>
       <c r="X26" t="n">
-        <v>2274.90636398512</v>
+        <v>2088.087184747048</v>
       </c>
       <c r="Y26" t="n">
-        <v>1973.356336192909</v>
+        <v>1786.537156954838</v>
       </c>
     </row>
     <row r="27">
@@ -6305,13 +6305,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
         <v>1223.947919817482</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1920.837450676061</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C28" t="n">
-        <v>1845.573014029238</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D28" t="n">
-        <v>1784.880582218941</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E28" t="n">
-        <v>1724.262451365332</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F28" t="n">
-        <v>1661.877197865493</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G28" t="n">
-        <v>1588.563825252127</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H28" t="n">
-        <v>1528.025955500809</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I28" t="n">
-        <v>1489.872211425075</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>1553.149830557211</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K28" t="n">
-        <v>1728.036233396726</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L28" t="n">
-        <v>1985.215235000099</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M28" t="n">
-        <v>2264.558175067936</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N28" t="n">
-        <v>2540.799170828719</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O28" t="n">
-        <v>2796.5552996</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P28" t="n">
-        <v>3009.482827106152</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q28" t="n">
-        <v>3105.956385205776</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R28" t="n">
-        <v>3076.996077125541</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S28" t="n">
-        <v>2969.120674595279</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T28" t="n">
-        <v>2828.342304050702</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U28" t="n">
-        <v>2637.844193579791</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V28" t="n">
-        <v>2466.805529687804</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W28" t="n">
-        <v>2278.41580890617</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X28" t="n">
-        <v>2139.276167976342</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y28" t="n">
-        <v>2011.104788080174</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="29">
@@ -6493,22 +6493,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T29" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U29" t="n">
-        <v>2873.571463155802</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V29" t="n">
-        <v>2873.571463155802</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W29" t="n">
-        <v>2597.513109411278</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="X29" t="n">
-        <v>2303.001185631523</v>
+        <v>2478.315967397137</v>
       </c>
       <c r="Y29" t="n">
-        <v>2001.451157839313</v>
+        <v>2176.765939604927</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L30" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M30" t="n">
-        <v>1606.310991511064</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N30" t="n">
-        <v>2146.089571124861</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O30" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P30" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6600,16 +6600,16 @@
         <v>493.0843669551004</v>
       </c>
       <c r="C31" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D31" t="n">
-        <v>357.1274984979812</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E31" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F31" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G31" t="n">
         <v>160.810741531167</v>
@@ -6624,49 +6624,49 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K31" t="n">
-        <v>300.2831496757664</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L31" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M31" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N31" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O31" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P31" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q31" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R31" t="n">
-        <v>1649.242993404582</v>
+        <v>1649.242993404583</v>
       </c>
       <c r="S31" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T31" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U31" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V31" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W31" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852105</v>
       </c>
       <c r="X31" t="n">
-        <v>711.5230842553818</v>
+        <v>711.5230842553819</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.3517043592135</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="32">
@@ -6685,25 +6685,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975448</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G32" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J32" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K32" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L32" t="n">
         <v>1059.071548358934</v>
@@ -6718,7 +6718,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P32" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q32" t="n">
         <v>3105.956385205776</v>
@@ -6730,19 +6730,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T32" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U32" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V32" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X32" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y32" t="n">
         <v>1882.877496443165</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C33" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D33" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E33" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F33" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G33" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H33" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J33" t="n">
-        <v>900.7358324498676</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>900.7358324498676</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>900.7358324498676</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>1528.507482076549</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N33" t="n">
-        <v>2184.285453287108</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O33" t="n">
-        <v>2700.805735878089</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2871.591293650886</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R33" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S33" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T33" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U33" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V33" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W33" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X33" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y33" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2243.686201918055</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C34" t="n">
-        <v>2205.157820666453</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D34" t="n">
-        <v>2181.201444251376</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E34" t="n">
-        <v>2157.319368792987</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F34" t="n">
-        <v>2131.670170688369</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G34" t="n">
-        <v>2095.092853470223</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H34" t="n">
-        <v>2071.291039114125</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I34" t="n">
-        <v>2069.873350433611</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J34" t="n">
-        <v>2075.452993041795</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K34" t="n">
-        <v>2157.288034151737</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2321.415674025537</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2507.707252363801</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S34" t="n">
-        <v>3034.817038070734</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>2930.774722921377</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U34" t="n">
-        <v>2777.012667845686</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V34" t="n">
-        <v>2642.710059348919</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W34" t="n">
-        <v>2491.056393962505</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X34" t="n">
-        <v>2388.652808427897</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y34" t="n">
-        <v>2297.217483926948</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="35">
@@ -6922,16 +6922,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6964,7 +6964,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6973,16 +6973,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2243.686201918055</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C37" t="n">
-        <v>2205.157820666453</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D37" t="n">
-        <v>2181.201444251376</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E37" t="n">
-        <v>2157.319368792987</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F37" t="n">
-        <v>2131.670170688369</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G37" t="n">
-        <v>2095.092853470223</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H37" t="n">
-        <v>2071.291039114125</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I37" t="n">
-        <v>2069.873350433611</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>2069.873350433611</v>
+        <v>67.69877031230018</v>
       </c>
       <c r="K37" t="n">
-        <v>2157.288034151737</v>
+        <v>149.5338114222421</v>
       </c>
       <c r="L37" t="n">
-        <v>2321.415674025537</v>
+        <v>313.6614512960418</v>
       </c>
       <c r="M37" t="n">
-        <v>2507.707252363801</v>
+        <v>499.9530296343059</v>
       </c>
       <c r="N37" t="n">
-        <v>2690.89688639501</v>
+        <v>683.1426636655151</v>
       </c>
       <c r="O37" t="n">
-        <v>2982.658023059147</v>
+        <v>845.8474307072231</v>
       </c>
       <c r="P37" t="n">
-        <v>3102.534188835725</v>
+        <v>965.7235964838017</v>
       </c>
       <c r="Q37" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
-        <v>3034.817038070734</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T37" t="n">
-        <v>2930.774722921377</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U37" t="n">
-        <v>2777.012667845686</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V37" t="n">
-        <v>2642.710059348919</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W37" t="n">
-        <v>2491.056393962505</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X37" t="n">
-        <v>2388.652808427897</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y37" t="n">
-        <v>2297.217483926948</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="38">
@@ -7159,7 +7159,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975455</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
         <v>542.6718405099316</v>
@@ -7168,7 +7168,7 @@
         <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7198,7 +7198,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
         <v>3071.119566829236</v>
@@ -7256,19 +7256,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>346.0196676966397</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>973.7913173233209</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2243.686201918055</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>2205.157820666453</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>2181.201444251376</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>2157.319368792987</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>2131.670170688369</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>2095.092853470223</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>2071.291039114125</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
-        <v>2069.873350433611</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>2069.873350433611</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>2151.708391543553</v>
+        <v>149.5338114222417</v>
       </c>
       <c r="L40" t="n">
-        <v>2321.415674025537</v>
+        <v>442.71782091847</v>
       </c>
       <c r="M40" t="n">
-        <v>2507.707252363801</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N40" t="n">
-        <v>2690.89688639501</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O40" t="n">
-        <v>2853.601653436718</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P40" t="n">
-        <v>3102.534188835725</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q40" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
-        <v>3034.817038070734</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>2930.774722921377</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>2777.012667845686</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>2642.710059348919</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>2491.056393962505</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>2388.652808427897</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>2297.217483926948</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1160.318517293599</v>
+        <v>2011.082836269683</v>
       </c>
       <c r="C41" t="n">
-        <v>1054.760027357834</v>
+        <v>1692.86645018995</v>
       </c>
       <c r="D41" t="n">
-        <v>1054.760027357834</v>
+        <v>1382.384436823954</v>
       </c>
       <c r="E41" t="n">
-        <v>1054.760027357834</v>
+        <v>1054.760027357835</v>
       </c>
       <c r="F41" t="n">
-        <v>712.8247043051482</v>
+        <v>712.8247043051485</v>
       </c>
       <c r="G41" t="n">
-        <v>374.6210642104876</v>
+        <v>374.6210642104878</v>
       </c>
       <c r="H41" t="n">
-        <v>125.4971291943145</v>
+        <v>125.4971291943146</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7438,25 +7438,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3014.401945564163</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2865.860458540916</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>2685.066844392851</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>2417.919150513706</v>
+        <v>2838.808691326631</v>
       </c>
       <c r="W41" t="n">
-        <v>2121.87923089933</v>
+        <v>2542.768771712254</v>
       </c>
       <c r="X41" t="n">
-        <v>1807.385741249723</v>
+        <v>2542.768771712254</v>
       </c>
       <c r="Y41" t="n">
-        <v>1485.85414758766</v>
+        <v>2221.237178050192</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1286.571845448837</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2217.379873437361</v>
+        <v>632.9553280440659</v>
       </c>
       <c r="C43" t="n">
-        <v>2122.133870920686</v>
+        <v>537.7093255273912</v>
       </c>
       <c r="D43" t="n">
-        <v>2041.459873240537</v>
+        <v>457.0353278472421</v>
       </c>
       <c r="E43" t="n">
-        <v>1960.860176517076</v>
+        <v>376.4356311237807</v>
       </c>
       <c r="F43" t="n">
-        <v>1878.493357147385</v>
+        <v>294.0688117540898</v>
       </c>
       <c r="G43" t="n">
-        <v>1785.198418664167</v>
+        <v>200.7738732708714</v>
       </c>
       <c r="H43" t="n">
-        <v>1704.678983042997</v>
+        <v>120.2544376497015</v>
       </c>
       <c r="I43" t="n">
-        <v>1646.543673097411</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>1690.237359520505</v>
+        <v>105.8128141272092</v>
       </c>
       <c r="K43" t="n">
-        <v>1845.539829650978</v>
+        <v>261.1152842576822</v>
       </c>
       <c r="L43" t="n">
-        <v>2083.134898545309</v>
+        <v>498.7103531520131</v>
       </c>
       <c r="M43" t="n">
-        <v>2342.893905904104</v>
+        <v>758.4693605108082</v>
       </c>
       <c r="N43" t="n">
-        <v>2599.550968955845</v>
+        <v>1015.126423562549</v>
       </c>
       <c r="O43" t="n">
-        <v>2835.723165018084</v>
+        <v>1251.298619624788</v>
       </c>
       <c r="P43" t="n">
-        <v>3029.066759815194</v>
+        <v>1444.642214421898</v>
       </c>
       <c r="Q43" t="n">
-        <v>3105.956385205776</v>
+        <v>1521.53183981248</v>
       </c>
       <c r="R43" t="n">
-        <v>3057.014511255689</v>
+        <v>1472.589965862393</v>
       </c>
       <c r="S43" t="n">
-        <v>2929.157542855575</v>
+        <v>1344.732997462278</v>
       </c>
       <c r="T43" t="n">
-        <v>2768.397606441145</v>
+        <v>1183.973061047848</v>
       </c>
       <c r="U43" t="n">
-        <v>2666.801952239186</v>
+        <v>1183.973061047848</v>
       </c>
       <c r="V43" t="n">
-        <v>2475.781722477346</v>
+        <v>992.9528312860085</v>
       </c>
       <c r="W43" t="n">
-        <v>2475.781722477346</v>
+        <v>992.9528312860085</v>
       </c>
       <c r="X43" t="n">
-        <v>2475.781722477346</v>
+        <v>833.8316244863277</v>
       </c>
       <c r="Y43" t="n">
-        <v>2327.628776711326</v>
+        <v>743.2042313180311</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1683.458426803564</v>
+        <v>1698.580899763311</v>
       </c>
       <c r="C44" t="n">
-        <v>1365.242040723831</v>
+        <v>1380.364513683578</v>
       </c>
       <c r="D44" t="n">
-        <v>1054.760027357834</v>
+        <v>1069.882500317582</v>
       </c>
       <c r="E44" t="n">
-        <v>1054.760027357834</v>
+        <v>742.2580908514624</v>
       </c>
       <c r="F44" t="n">
-        <v>712.8247043051483</v>
+        <v>400.3227677987762</v>
       </c>
       <c r="G44" t="n">
-        <v>374.6210642104876</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>125.4971291943145</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7675,25 +7675,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3014.401945564163</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2865.860458540916</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2685.066844392851</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>2417.919150513706</v>
+        <v>2956.181532983418</v>
       </c>
       <c r="W44" t="n">
-        <v>2121.87923089933</v>
+        <v>2660.141613369041</v>
       </c>
       <c r="X44" t="n">
-        <v>2121.87923089933</v>
+        <v>2345.648123719434</v>
       </c>
       <c r="Y44" t="n">
-        <v>1800.347637237267</v>
+        <v>2024.116530057372</v>
       </c>
     </row>
     <row r="45">
@@ -7736,16 +7736,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2262.088962721623</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>215.500440166376</v>
+        <v>604.3169240683185</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2544376497014</v>
+        <v>509.0709215516438</v>
       </c>
       <c r="D46" t="n">
-        <v>120.2544376497014</v>
+        <v>428.3969238714947</v>
       </c>
       <c r="E46" t="n">
-        <v>120.2544376497014</v>
+        <v>347.7972271480334</v>
       </c>
       <c r="F46" t="n">
-        <v>120.2544376497014</v>
+        <v>265.4304077783424</v>
       </c>
       <c r="G46" t="n">
-        <v>120.2544376497014</v>
+        <v>172.1354692951241</v>
       </c>
       <c r="H46" t="n">
-        <v>120.2544376497014</v>
+        <v>91.61603367395425</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8128141272093</v>
+        <v>105.8128141272092</v>
       </c>
       <c r="K46" t="n">
-        <v>261.1152842576823</v>
+        <v>261.1152842576822</v>
       </c>
       <c r="L46" t="n">
-        <v>498.7103531520133</v>
+        <v>498.7103531520132</v>
       </c>
       <c r="M46" t="n">
-        <v>758.4693605108087</v>
+        <v>758.4693605108084</v>
       </c>
       <c r="N46" t="n">
         <v>1015.126423562549</v>
@@ -7830,28 +7830,28 @@
         <v>1521.53183981248</v>
       </c>
       <c r="R46" t="n">
-        <v>1521.53183981248</v>
+        <v>1472.589965862393</v>
       </c>
       <c r="S46" t="n">
-        <v>1403.65462517456</v>
+        <v>1472.589965862393</v>
       </c>
       <c r="T46" t="n">
-        <v>1242.894688760131</v>
+        <v>1472.589965862393</v>
       </c>
       <c r="U46" t="n">
-        <v>1032.415012419368</v>
+        <v>1262.11028952163</v>
       </c>
       <c r="V46" t="n">
-        <v>841.3947826575284</v>
+        <v>1071.09005975979</v>
       </c>
       <c r="W46" t="n">
-        <v>633.0234960060423</v>
+        <v>862.7187731083042</v>
       </c>
       <c r="X46" t="n">
-        <v>473.9022892063616</v>
+        <v>862.7187731083042</v>
       </c>
       <c r="Y46" t="n">
-        <v>325.7493434403411</v>
+        <v>714.5658273422837</v>
       </c>
     </row>
   </sheetData>
@@ -7984,10 +7984,10 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M2" t="n">
-        <v>331.0195299270391</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
@@ -8063,13 +8063,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>349.2438226594827</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>92.83741255226374</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8078,7 +8078,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8221,19 +8221,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>451.8641826900545</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>213.6604073397399</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>235.8239269133934</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>270.6522400901343</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8467,10 +8467,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>223.8267004481029</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8531,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>353.4472259067894</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,13 +8768,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8786,7 +8786,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>173.3576105420024</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9005,10 +9005,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9017,16 +9017,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>110.5765941352903</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9181,7 +9181,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9242,10 +9242,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9254,16 +9254,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>373.1055958271601</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9491,7 +9491,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>569.9919810238538</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9500,7 +9500,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,19 +9716,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9737,7 +9737,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9962,7 +9962,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>454.5321323046928</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -10193,25 +10193,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>499.3034269858954</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10430,22 +10430,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>259.5940292362812</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10667,25 +10667,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>126.0381992661173</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10904,22 +10904,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>262.5710112738847</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11141,25 +11141,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>668.5665922884425</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11317,7 +11317,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11384,19 +11384,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.5494662449327</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>259.0521728817268</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>12.97082600957768</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
         <v>159.2039277954309</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D14" t="n">
-        <v>159.4755493687297</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>5.583483882036916</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>201.3755073778975</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>116.5130781045863</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404354</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>173.5616339479578</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>127.2743219418611</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292004</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>272.2326524119397</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>114.227475628417</v>
       </c>
       <c r="C41" t="n">
-        <v>210.5313171825283</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>307.3771932323361</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>324.348165371458</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>90.63889524519719</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>147.0560721530147</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>178.9856780065846</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>311.348554753111</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>107.7951819174159</v>
+        <v>208.3748795773553</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>206.2875737849713</v>
+        <v>206.2875737849714</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5299947316839</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>56.95029707174679</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>206.5599556617538</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>324.348165371458</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>246.6326956660114</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>62.74422147529704</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>90.63889524519716</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>147.0560721530147</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>178.9856780065846</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>116.1991132402188</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>311.3485547531109</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>79.86725770334756</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>79.79369975622667</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>81.54315117599394</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>92.36198909838608</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>79.71424126495812</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>28.35201993598977</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>48.45245521058597</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>9.879956224572808</v>
+        <v>126.5783987161133</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>159.1523370502854</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>157.5299947316839</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>605517.9992408541</v>
+        <v>605517.9992408539</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>605517.9992408541</v>
+        <v>605517.9992408539</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>605517.9992408539</v>
+        <v>605517.9992408538</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>546746.2461885972</v>
+        <v>546746.2461885971</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>721328.7123734272</v>
+        <v>721328.712373427</v>
       </c>
       <c r="C2" t="n">
         <v>721328.712373427</v>
       </c>
       <c r="D2" t="n">
-        <v>721328.7123734269</v>
+        <v>721328.7123734271</v>
       </c>
       <c r="E2" t="n">
         <v>677904.490732954</v>
       </c>
       <c r="F2" t="n">
-        <v>677904.4907329543</v>
+        <v>677904.4907329533</v>
       </c>
       <c r="G2" t="n">
-        <v>721328.7123734275</v>
+        <v>721328.7123734269</v>
       </c>
       <c r="H2" t="n">
-        <v>721328.7123734275</v>
+        <v>721328.7123734268</v>
       </c>
       <c r="I2" t="n">
-        <v>721328.7123734276</v>
+        <v>721328.7123734268</v>
       </c>
       <c r="J2" t="n">
-        <v>677904.4907329539</v>
+        <v>677904.4907329533</v>
       </c>
       <c r="K2" t="n">
-        <v>677904.4907329539</v>
+        <v>677904.4907329524</v>
       </c>
       <c r="L2" t="n">
-        <v>721328.7123734275</v>
+        <v>721328.7123734266</v>
       </c>
       <c r="M2" t="n">
-        <v>721328.7123734275</v>
+        <v>721328.7123734273</v>
       </c>
       <c r="N2" t="n">
-        <v>721328.7123734276</v>
+        <v>721328.7123734272</v>
       </c>
       <c r="O2" t="n">
-        <v>642966.3749704184</v>
+        <v>642966.3749704182</v>
       </c>
       <c r="P2" t="n">
-        <v>642966.3749704182</v>
+        <v>642966.3749704185</v>
       </c>
     </row>
     <row r="3">
@@ -26380,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301434</v>
+        <v>29094.95587301429</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>200837.4980720422</v>
+        <v>200837.4980720423</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.9117460287</v>
+        <v>58189.91174602867</v>
       </c>
       <c r="M3" t="n">
         <v>46121.92123989169</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1177.707664501538</v>
+        <v>1177.707664501557</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>161760.5563326216</v>
       </c>
       <c r="F4" t="n">
-        <v>161760.5563326216</v>
+        <v>161760.5563326215</v>
       </c>
       <c r="G4" t="n">
         <v>186364.8769761035</v>
@@ -26438,13 +26438,13 @@
         <v>186364.8769761036</v>
       </c>
       <c r="I4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="J4" t="n">
-        <v>161760.5563326215</v>
+        <v>161760.5563326216</v>
       </c>
       <c r="K4" t="n">
-        <v>161760.5563326215</v>
+        <v>161760.5563326216</v>
       </c>
       <c r="L4" t="n">
         <v>186364.8769761036</v>
@@ -26453,10 +26453,10 @@
         <v>186364.8769761035</v>
       </c>
       <c r="N4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="O4" t="n">
-        <v>141770.1932483373</v>
+        <v>141770.1932483371</v>
       </c>
       <c r="P4" t="n">
         <v>141770.1932483372</v>
@@ -26484,7 +26484,7 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26499,16 +26499,16 @@
         <v>55112.2895089091</v>
       </c>
       <c r="L5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>53449.25755040764</v>
+        <v>53449.25755040762</v>
       </c>
       <c r="P5" t="n">
         <v>53449.25755040763</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>241971.5537997188</v>
+        <v>241971.5537997185</v>
       </c>
       <c r="C6" t="n">
         <v>440167.3597914635</v>
       </c>
       <c r="D6" t="n">
-        <v>440167.3597914634</v>
+        <v>440167.3597914636</v>
       </c>
       <c r="E6" t="n">
-        <v>330578.7137537112</v>
+        <v>330470.15319961</v>
       </c>
       <c r="F6" t="n">
-        <v>461031.6448914236</v>
+        <v>460923.0843373215</v>
       </c>
       <c r="G6" t="n">
-        <v>447699.11020879</v>
+        <v>447699.1102087894</v>
       </c>
       <c r="H6" t="n">
-        <v>476794.0660818042</v>
+        <v>476794.0660818035</v>
       </c>
       <c r="I6" t="n">
-        <v>476794.0660818044</v>
+        <v>476794.0660818036</v>
       </c>
       <c r="J6" t="n">
-        <v>260194.146819381</v>
+        <v>260085.5862652792</v>
       </c>
       <c r="K6" t="n">
-        <v>461031.6448914232</v>
+        <v>460923.0843373205</v>
       </c>
       <c r="L6" t="n">
-        <v>418604.1543357756</v>
+        <v>418604.1543357748</v>
       </c>
       <c r="M6" t="n">
         <v>430672.1448419126</v>
       </c>
       <c r="N6" t="n">
-        <v>476794.0660818044</v>
+        <v>476794.0660818039</v>
       </c>
       <c r="O6" t="n">
-        <v>446569.216507172</v>
+        <v>446373.3106636644</v>
       </c>
       <c r="P6" t="n">
-        <v>447746.9241716733</v>
+        <v>447551.0183281662</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26709,25 +26709,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="P2" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
     </row>
     <row r="3">
@@ -26819,7 +26819,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="L4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26916,28 +26916,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126787</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304845</v>
+        <v>57.62257963304855</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253588</v>
+        <v>72.73738968253583</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.472134580626923</v>
+        <v>1.472134580626946</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321491</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,22 +27153,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126787</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304845</v>
+        <v>57.62257963304855</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>321.1803628244185</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>48.55428574213175</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27551,16 +27551,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>22.49194565313516</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27599,13 +27599,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>24.04094380275529</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.29912677490694</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>153.7885616961714</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27678,10 +27678,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27824,7 +27824,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27836,13 +27836,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>93.42545909249179</v>
+        <v>222.618498029585</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>175.4550360728009</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>81.87846571386379</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27918,7 +27918,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>23.65888910788253</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.76041352312701</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28067,7 +28067,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28721,31 +28721,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28760,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28769,28 +28769,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082793</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28985,20 +28985,20 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
@@ -29006,7 +29006,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>128.2979821082774</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29222,14 +29222,14 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
@@ -29237,13 +29237,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>5.636002634528595</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.9912744743164</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29930,7 +29930,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29942,19 +29942,19 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S34" t="n">
         <v>130.3599693155844</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="36">
@@ -30143,34 +30143,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668903</v>
       </c>
       <c r="K37" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30182,37 +30182,37 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="38">
@@ -30270,7 +30270,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>37.6129845773342</v>
       </c>
       <c r="S38" t="n">
         <v>130.3599693155844</v>
@@ -30407,10 +30407,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.636002634529632</v>
       </c>
       <c r="L40" t="n">
-        <v>5.636002634528893</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30422,7 +30422,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="C41" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="D41" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="E41" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="F41" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="G41" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="H41" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="I41" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="T41" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="U41" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="V41" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="W41" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="X41" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="Y41" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="C43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="D43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="E43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="F43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="G43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="H43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="I43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="J43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="K43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="L43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="M43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="N43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="O43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="P43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="R43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="S43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="T43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="U43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="V43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="W43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="X43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
       <c r="Y43" t="n">
-        <v>74.20952426316286</v>
+        <v>74.20952426316275</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="C44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="D44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="E44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="F44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="G44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="H44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="I44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="T44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="U44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="V44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="W44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="X44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="Y44" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="C46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="D46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="E46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="F46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="G46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="H46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="I46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="J46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="K46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="L46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="M46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="N46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="O46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="P46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="R46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="S46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="T46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="U46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="V46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="W46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="X46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
       <c r="Y46" t="n">
-        <v>74.20952426316283</v>
+        <v>74.20952426316278</v>
       </c>
     </row>
   </sheetData>
@@ -34704,10 +34704,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M2" t="n">
-        <v>181.2944783293118</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
@@ -34783,13 +34783,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>259.1834758025645</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>7.465299698097082</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34798,7 +34798,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>298.6160129595628</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>63.35896009881473</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>148.7405620940788</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>127.5938369108969</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35187,10 +35187,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>74.26286302400655</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>260.7596670179005</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35506,7 +35506,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>86.27424572268772</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35588,7 +35588,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35737,16 +35737,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>23.49322931597565</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35825,7 +35825,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446891</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35901,7 +35901,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35974,16 +35974,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>287.7334829729934</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36065,7 +36065,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634530472</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>484.6198681696871</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36220,7 +36220,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36293,7 +36293,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36302,7 +36302,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634528635</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
         <v>186.7126870110591</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36457,7 +36457,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36533,13 +36533,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724868</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36682,7 +36682,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215733</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122745</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446888</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>409.2430801289772</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215736</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37010,7 +37010,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446891</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>172.5106644169666</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37238,7 +37238,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
         <v>164.3482495370789</v>
@@ -37247,10 +37247,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634529956</v>
       </c>
       <c r="K37" t="n">
-        <v>88.29766032133901</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37478,13 +37478,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37560,13 +37560,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>9.186815169423518e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>172.5106644169664</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133961</v>
       </c>
       <c r="L40" t="n">
-        <v>171.4214974565489</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37718,7 +37718,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37861,25 +37861,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>583.1944794342759</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>44.13503679100379</v>
+        <v>44.13503679100368</v>
       </c>
       <c r="K43" t="n">
-        <v>156.8711819499728</v>
+        <v>156.8711819499727</v>
       </c>
       <c r="L43" t="n">
-        <v>239.9950190851828</v>
+        <v>239.9950190851827</v>
       </c>
       <c r="M43" t="n">
-        <v>262.3828357159548</v>
+        <v>262.3828357159547</v>
       </c>
       <c r="N43" t="n">
-        <v>259.2495586381216</v>
+        <v>259.2495586381215</v>
       </c>
       <c r="O43" t="n">
-        <v>238.5577738002417</v>
+        <v>238.5577738002416</v>
       </c>
       <c r="P43" t="n">
-        <v>195.296560401121</v>
+        <v>195.2965604011209</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.66628827331535</v>
+        <v>77.66628827331523</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38037,7 +38037,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>119.5613130890187</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>44.13503679100376</v>
+        <v>44.13503679100371</v>
       </c>
       <c r="K46" t="n">
         <v>156.8711819499728</v>
@@ -38183,19 +38183,19 @@
         <v>239.9950190851828</v>
       </c>
       <c r="M46" t="n">
-        <v>262.3828357159548</v>
+        <v>262.3828357159547</v>
       </c>
       <c r="N46" t="n">
         <v>259.2495586381216</v>
       </c>
       <c r="O46" t="n">
-        <v>238.5577738002417</v>
+        <v>238.5577738002416</v>
       </c>
       <c r="P46" t="n">
-        <v>195.296560401121</v>
+        <v>195.2965604011209</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.66628827331532</v>
+        <v>77.66628827331526</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
